--- a/data/raw/election/voters-age-sex-education/2023/Sakarya.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Sakarya.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-age_sex_education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-16:56:52-15582641241" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="45">
   <si>
     <t>Sakarya</t>
   </si>
@@ -149,6 +148,12 @@
   </si>
   <si>
     <t>Taraklı</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -682,7 +687,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -696,16 +701,25 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1030,10 +1044,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N420"/>
+  <dimension ref="A1:N422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A387" workbookViewId="0">
-      <selection activeCell="A421" sqref="A421:A422"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,52 +1063,52 @@
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.140625" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8"/>
+      <c r="A5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1148,14 +1162,14 @@
       <c r="F6" s="4">
         <v>4</v>
       </c>
-      <c r="G6" s="4">
-        <v>2.7930000000000001</v>
-      </c>
-      <c r="H6" s="4">
-        <v>9.0030000000000001</v>
-      </c>
-      <c r="I6" s="4">
-        <v>1.651</v>
+      <c r="G6" s="5">
+        <v>2793</v>
+      </c>
+      <c r="H6" s="5">
+        <v>9003</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1651</v>
       </c>
       <c r="J6" s="4">
         <v>12</v>
@@ -1166,8 +1180,8 @@
       <c r="L6" s="4">
         <v>142</v>
       </c>
-      <c r="M6" s="5">
-        <v>13.712</v>
+      <c r="M6" s="6">
+        <v>13712</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1187,14 +1201,14 @@
       <c r="F7" s="4">
         <v>3</v>
       </c>
-      <c r="G7" s="4">
-        <v>2.0129999999999999</v>
-      </c>
-      <c r="H7" s="4">
-        <v>8.4049999999999994</v>
-      </c>
-      <c r="I7" s="4">
-        <v>2.6040000000000001</v>
+      <c r="G7" s="5">
+        <v>2013</v>
+      </c>
+      <c r="H7" s="5">
+        <v>8405</v>
+      </c>
+      <c r="I7" s="5">
+        <v>2604</v>
       </c>
       <c r="J7" s="4">
         <v>29</v>
@@ -1205,8 +1219,8 @@
       <c r="L7" s="4">
         <v>59</v>
       </c>
-      <c r="M7" s="5">
-        <v>13.276</v>
+      <c r="M7" s="6">
+        <v>13276</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1228,14 +1242,14 @@
       <c r="F8" s="4">
         <v>62</v>
       </c>
-      <c r="G8" s="4">
-        <v>1.7310000000000001</v>
-      </c>
-      <c r="H8" s="4">
-        <v>3.915</v>
-      </c>
-      <c r="I8" s="4">
-        <v>3.6850000000000001</v>
+      <c r="G8" s="5">
+        <v>1731</v>
+      </c>
+      <c r="H8" s="5">
+        <v>3915</v>
+      </c>
+      <c r="I8" s="5">
+        <v>3685</v>
       </c>
       <c r="J8" s="4">
         <v>262</v>
@@ -1246,8 +1260,8 @@
       <c r="L8" s="4">
         <v>85</v>
       </c>
-      <c r="M8" s="5">
-        <v>9.8219999999999992</v>
+      <c r="M8" s="6">
+        <v>9822</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1267,14 +1281,14 @@
       <c r="F9" s="4">
         <v>93</v>
       </c>
-      <c r="G9" s="4">
-        <v>1.5740000000000001</v>
-      </c>
-      <c r="H9" s="4">
-        <v>2.5270000000000001</v>
-      </c>
-      <c r="I9" s="4">
-        <v>4.8680000000000003</v>
+      <c r="G9" s="5">
+        <v>1574</v>
+      </c>
+      <c r="H9" s="5">
+        <v>2527</v>
+      </c>
+      <c r="I9" s="5">
+        <v>4868</v>
       </c>
       <c r="J9" s="4">
         <v>401</v>
@@ -1285,8 +1299,8 @@
       <c r="L9" s="4">
         <v>80</v>
       </c>
-      <c r="M9" s="5">
-        <v>9.7569999999999997</v>
+      <c r="M9" s="6">
+        <v>9757</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1311,11 +1325,11 @@
       <c r="G10" s="4">
         <v>745</v>
       </c>
-      <c r="H10" s="4">
-        <v>3.8079999999999998</v>
-      </c>
-      <c r="I10" s="4">
-        <v>3.548</v>
+      <c r="H10" s="5">
+        <v>3808</v>
+      </c>
+      <c r="I10" s="5">
+        <v>3548</v>
       </c>
       <c r="J10" s="4">
         <v>433</v>
@@ -1326,8 +1340,8 @@
       <c r="L10" s="4">
         <v>76</v>
       </c>
-      <c r="M10" s="5">
-        <v>9.5830000000000002</v>
+      <c r="M10" s="6">
+        <v>9583</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1344,17 +1358,17 @@
       <c r="E11" s="4">
         <v>145</v>
       </c>
-      <c r="F11" s="4">
-        <v>1.294</v>
+      <c r="F11" s="5">
+        <v>1294</v>
       </c>
       <c r="G11" s="4">
         <v>772</v>
       </c>
-      <c r="H11" s="4">
-        <v>2.9039999999999999</v>
-      </c>
-      <c r="I11" s="4">
-        <v>4.0270000000000001</v>
+      <c r="H11" s="5">
+        <v>2904</v>
+      </c>
+      <c r="I11" s="5">
+        <v>4027</v>
       </c>
       <c r="J11" s="4">
         <v>457</v>
@@ -1365,8 +1379,8 @@
       <c r="L11" s="4">
         <v>70</v>
       </c>
-      <c r="M11" s="5">
-        <v>9.8800000000000008</v>
+      <c r="M11" s="6">
+        <v>9880</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1385,17 +1399,17 @@
       <c r="E12" s="4">
         <v>309</v>
       </c>
-      <c r="F12" s="4">
-        <v>1.1970000000000001</v>
+      <c r="F12" s="5">
+        <v>1197</v>
       </c>
       <c r="G12" s="4">
         <v>710</v>
       </c>
-      <c r="H12" s="4">
-        <v>3.9969999999999999</v>
-      </c>
-      <c r="I12" s="4">
-        <v>3.0049999999999999</v>
+      <c r="H12" s="5">
+        <v>3997</v>
+      </c>
+      <c r="I12" s="5">
+        <v>3005</v>
       </c>
       <c r="J12" s="4">
         <v>443</v>
@@ -1406,8 +1420,8 @@
       <c r="L12" s="4">
         <v>59</v>
       </c>
-      <c r="M12" s="5">
-        <v>9.8179999999999996</v>
+      <c r="M12" s="6">
+        <v>9818</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1421,20 +1435,20 @@
       <c r="D13" s="4">
         <v>66</v>
       </c>
-      <c r="E13" s="4">
-        <v>1.228</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1.2450000000000001</v>
+      <c r="E13" s="5">
+        <v>1228</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1245</v>
       </c>
       <c r="G13" s="4">
         <v>923</v>
       </c>
-      <c r="H13" s="4">
-        <v>3.52</v>
-      </c>
-      <c r="I13" s="4">
-        <v>2.8660000000000001</v>
+      <c r="H13" s="5">
+        <v>3520</v>
+      </c>
+      <c r="I13" s="5">
+        <v>2866</v>
       </c>
       <c r="J13" s="4">
         <v>400</v>
@@ -1445,8 +1459,8 @@
       <c r="L13" s="4">
         <v>88</v>
       </c>
-      <c r="M13" s="5">
-        <v>10.401999999999999</v>
+      <c r="M13" s="6">
+        <v>10402</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1465,17 +1479,17 @@
       <c r="E14" s="4">
         <v>781</v>
       </c>
-      <c r="F14" s="4">
-        <v>1.266</v>
-      </c>
-      <c r="G14" s="4">
-        <v>1.601</v>
-      </c>
-      <c r="H14" s="4">
-        <v>4.5979999999999999</v>
-      </c>
-      <c r="I14" s="4">
-        <v>2.452</v>
+      <c r="F14" s="5">
+        <v>1266</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1601</v>
+      </c>
+      <c r="H14" s="5">
+        <v>4598</v>
+      </c>
+      <c r="I14" s="5">
+        <v>2452</v>
       </c>
       <c r="J14" s="4">
         <v>447</v>
@@ -1486,8 +1500,8 @@
       <c r="L14" s="4">
         <v>67</v>
       </c>
-      <c r="M14" s="5">
-        <v>11.331</v>
+      <c r="M14" s="6">
+        <v>11331</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1501,20 +1515,20 @@
       <c r="D15" s="4">
         <v>87</v>
       </c>
-      <c r="E15" s="4">
-        <v>2.1949999999999998</v>
-      </c>
-      <c r="F15" s="4">
-        <v>1.169</v>
-      </c>
-      <c r="G15" s="4">
-        <v>1.5569999999999999</v>
-      </c>
-      <c r="H15" s="4">
-        <v>3.786</v>
-      </c>
-      <c r="I15" s="4">
-        <v>2.3460000000000001</v>
+      <c r="E15" s="5">
+        <v>2195</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1169</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1557</v>
+      </c>
+      <c r="H15" s="5">
+        <v>3786</v>
+      </c>
+      <c r="I15" s="5">
+        <v>2346</v>
       </c>
       <c r="J15" s="4">
         <v>340</v>
@@ -1525,8 +1539,8 @@
       <c r="L15" s="4">
         <v>75</v>
       </c>
-      <c r="M15" s="5">
-        <v>11.662000000000001</v>
+      <c r="M15" s="6">
+        <v>11662</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1542,20 +1556,20 @@
       <c r="D16" s="4">
         <v>25</v>
       </c>
-      <c r="E16" s="4">
-        <v>1.0740000000000001</v>
-      </c>
-      <c r="F16" s="4">
-        <v>1.4950000000000001</v>
-      </c>
-      <c r="G16" s="4">
-        <v>1.5449999999999999</v>
-      </c>
-      <c r="H16" s="4">
-        <v>3.5059999999999998</v>
-      </c>
-      <c r="I16" s="4">
-        <v>2.0640000000000001</v>
+      <c r="E16" s="5">
+        <v>1074</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1495</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1545</v>
+      </c>
+      <c r="H16" s="5">
+        <v>3506</v>
+      </c>
+      <c r="I16" s="5">
+        <v>2064</v>
       </c>
       <c r="J16" s="4">
         <v>340</v>
@@ -1566,8 +1580,8 @@
       <c r="L16" s="4">
         <v>87</v>
       </c>
-      <c r="M16" s="5">
-        <v>10.208</v>
+      <c r="M16" s="6">
+        <v>10208</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1581,20 +1595,20 @@
       <c r="D17" s="4">
         <v>63</v>
       </c>
-      <c r="E17" s="4">
-        <v>2.5550000000000002</v>
-      </c>
-      <c r="F17" s="4">
-        <v>1.26</v>
-      </c>
-      <c r="G17" s="4">
-        <v>1.405</v>
-      </c>
-      <c r="H17" s="4">
-        <v>2.9940000000000002</v>
-      </c>
-      <c r="I17" s="4">
-        <v>1.4259999999999999</v>
+      <c r="E17" s="5">
+        <v>2555</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1260</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1405</v>
+      </c>
+      <c r="H17" s="5">
+        <v>2994</v>
+      </c>
+      <c r="I17" s="5">
+        <v>1426</v>
       </c>
       <c r="J17" s="4">
         <v>148</v>
@@ -1605,8 +1619,8 @@
       <c r="L17" s="4">
         <v>68</v>
       </c>
-      <c r="M17" s="5">
-        <v>10.009</v>
+      <c r="M17" s="6">
+        <v>10009</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1622,20 +1636,20 @@
       <c r="D18" s="4">
         <v>20</v>
       </c>
-      <c r="E18" s="4">
-        <v>1.1759999999999999</v>
-      </c>
-      <c r="F18" s="4">
-        <v>1.554</v>
-      </c>
-      <c r="G18" s="4">
-        <v>1.641</v>
-      </c>
-      <c r="H18" s="4">
-        <v>2.758</v>
-      </c>
-      <c r="I18" s="4">
-        <v>1.395</v>
+      <c r="E18" s="5">
+        <v>1176</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1554</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1641</v>
+      </c>
+      <c r="H18" s="5">
+        <v>2758</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1395</v>
       </c>
       <c r="J18" s="4">
         <v>204</v>
@@ -1646,8 +1660,8 @@
       <c r="L18" s="4">
         <v>93</v>
       </c>
-      <c r="M18" s="5">
-        <v>8.9079999999999995</v>
+      <c r="M18" s="6">
+        <v>8908</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1661,17 +1675,17 @@
       <c r="D19" s="4">
         <v>106</v>
       </c>
-      <c r="E19" s="4">
-        <v>2.8820000000000001</v>
-      </c>
-      <c r="F19" s="4">
-        <v>1.357</v>
-      </c>
-      <c r="G19" s="4">
-        <v>1.2929999999999999</v>
-      </c>
-      <c r="H19" s="4">
-        <v>2.2989999999999999</v>
+      <c r="E19" s="5">
+        <v>2882</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1357</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1293</v>
+      </c>
+      <c r="H19" s="5">
+        <v>2299</v>
       </c>
       <c r="I19" s="4">
         <v>782</v>
@@ -1685,8 +1699,8 @@
       <c r="L19" s="4">
         <v>91</v>
       </c>
-      <c r="M19" s="5">
-        <v>8.984</v>
+      <c r="M19" s="6">
+        <v>8984</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1702,20 +1716,20 @@
       <c r="D20" s="4">
         <v>27</v>
       </c>
-      <c r="E20" s="4">
-        <v>1.546</v>
-      </c>
-      <c r="F20" s="4">
-        <v>1.2989999999999999</v>
-      </c>
-      <c r="G20" s="4">
-        <v>1.2509999999999999</v>
-      </c>
-      <c r="H20" s="4">
-        <v>1.9570000000000001</v>
-      </c>
-      <c r="I20" s="4">
-        <v>1.0069999999999999</v>
+      <c r="E20" s="5">
+        <v>1546</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1299</v>
+      </c>
+      <c r="G20" s="5">
+        <v>1251</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1957</v>
+      </c>
+      <c r="I20" s="5">
+        <v>1007</v>
       </c>
       <c r="J20" s="4">
         <v>99</v>
@@ -1726,8 +1740,8 @@
       <c r="L20" s="4">
         <v>97</v>
       </c>
-      <c r="M20" s="5">
-        <v>7.335</v>
+      <c r="M20" s="6">
+        <v>7335</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1741,8 +1755,8 @@
       <c r="D21" s="4">
         <v>154</v>
       </c>
-      <c r="E21" s="4">
-        <v>3.4409999999999998</v>
+      <c r="E21" s="5">
+        <v>3441</v>
       </c>
       <c r="F21" s="4">
         <v>832</v>
@@ -1750,8 +1764,8 @@
       <c r="G21" s="4">
         <v>920</v>
       </c>
-      <c r="H21" s="4">
-        <v>1.585</v>
+      <c r="H21" s="5">
+        <v>1585</v>
       </c>
       <c r="I21" s="4">
         <v>489</v>
@@ -1765,8 +1779,8 @@
       <c r="L21" s="4">
         <v>131</v>
       </c>
-      <c r="M21" s="5">
-        <v>7.7210000000000001</v>
+      <c r="M21" s="6">
+        <v>7721</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1782,8 +1796,8 @@
       <c r="D22" s="4">
         <v>53</v>
       </c>
-      <c r="E22" s="4">
-        <v>2.093</v>
+      <c r="E22" s="5">
+        <v>2093</v>
       </c>
       <c r="F22" s="4">
         <v>807</v>
@@ -1791,8 +1805,8 @@
       <c r="G22" s="4">
         <v>965</v>
       </c>
-      <c r="H22" s="4">
-        <v>1.6639999999999999</v>
+      <c r="H22" s="5">
+        <v>1664</v>
       </c>
       <c r="I22" s="4">
         <v>658</v>
@@ -1806,8 +1820,8 @@
       <c r="L22" s="4">
         <v>119</v>
       </c>
-      <c r="M22" s="5">
-        <v>6.48</v>
+      <c r="M22" s="6">
+        <v>6480</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1821,8 +1835,8 @@
       <c r="D23" s="4">
         <v>315</v>
       </c>
-      <c r="E23" s="4">
-        <v>3.9540000000000002</v>
+      <c r="E23" s="5">
+        <v>3954</v>
       </c>
       <c r="F23" s="4">
         <v>490</v>
@@ -1830,8 +1844,8 @@
       <c r="G23" s="4">
         <v>534</v>
       </c>
-      <c r="H23" s="4">
-        <v>1.089</v>
+      <c r="H23" s="5">
+        <v>1089</v>
       </c>
       <c r="I23" s="4">
         <v>314</v>
@@ -1845,8 +1859,8 @@
       <c r="L23" s="4">
         <v>114</v>
       </c>
-      <c r="M23" s="5">
-        <v>7.0910000000000002</v>
+      <c r="M23" s="6">
+        <v>7091</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1862,8 +1876,8 @@
       <c r="D24" s="4">
         <v>65</v>
       </c>
-      <c r="E24" s="4">
-        <v>2.3570000000000002</v>
+      <c r="E24" s="5">
+        <v>2357</v>
       </c>
       <c r="F24" s="4">
         <v>325</v>
@@ -1871,8 +1885,8 @@
       <c r="G24" s="4">
         <v>733</v>
       </c>
-      <c r="H24" s="4">
-        <v>1.0409999999999999</v>
+      <c r="H24" s="5">
+        <v>1041</v>
       </c>
       <c r="I24" s="4">
         <v>615</v>
@@ -1886,8 +1900,8 @@
       <c r="L24" s="4">
         <v>98</v>
       </c>
-      <c r="M24" s="5">
-        <v>5.327</v>
+      <c r="M24" s="6">
+        <v>5327</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1901,8 +1915,8 @@
       <c r="D25" s="4">
         <v>404</v>
       </c>
-      <c r="E25" s="4">
-        <v>3.53</v>
+      <c r="E25" s="5">
+        <v>3530</v>
       </c>
       <c r="F25" s="4">
         <v>181</v>
@@ -1925,8 +1939,8 @@
       <c r="L25" s="4">
         <v>103</v>
       </c>
-      <c r="M25" s="5">
-        <v>5.73</v>
+      <c r="M25" s="6">
+        <v>5730</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1942,8 +1956,8 @@
       <c r="D26" s="4">
         <v>79</v>
       </c>
-      <c r="E26" s="4">
-        <v>2.0430000000000001</v>
+      <c r="E26" s="5">
+        <v>2043</v>
       </c>
       <c r="F26" s="4">
         <v>104</v>
@@ -1966,8 +1980,8 @@
       <c r="L26" s="4">
         <v>63</v>
       </c>
-      <c r="M26" s="5">
-        <v>3.59</v>
+      <c r="M26" s="6">
+        <v>3590</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1981,8 +1995,8 @@
       <c r="D27" s="4">
         <v>451</v>
       </c>
-      <c r="E27" s="4">
-        <v>2.681</v>
+      <c r="E27" s="5">
+        <v>2681</v>
       </c>
       <c r="F27" s="4">
         <v>43</v>
@@ -2005,8 +2019,8 @@
       <c r="L27" s="4">
         <v>76</v>
       </c>
-      <c r="M27" s="5">
-        <v>4.2919999999999998</v>
+      <c r="M27" s="6">
+        <v>4292</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -2022,8 +2036,8 @@
       <c r="D28" s="4">
         <v>230</v>
       </c>
-      <c r="E28" s="4">
-        <v>2.3839999999999999</v>
+      <c r="E28" s="5">
+        <v>2384</v>
       </c>
       <c r="F28" s="4">
         <v>31</v>
@@ -2046,8 +2060,8 @@
       <c r="L28" s="4">
         <v>88</v>
       </c>
-      <c r="M28" s="5">
-        <v>3.8839999999999999</v>
+      <c r="M28" s="6">
+        <v>3884</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2055,14 +2069,14 @@
       <c r="B29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="4">
-        <v>1.3140000000000001</v>
+      <c r="C29" s="5">
+        <v>1314</v>
       </c>
       <c r="D29" s="4">
         <v>948</v>
       </c>
-      <c r="E29" s="4">
-        <v>2.9849999999999999</v>
+      <c r="E29" s="5">
+        <v>2985</v>
       </c>
       <c r="F29" s="4">
         <v>13</v>
@@ -2085,54 +2099,54 @@
       <c r="L29" s="4">
         <v>117</v>
       </c>
-      <c r="M29" s="5">
-        <v>5.8769999999999998</v>
+      <c r="M29" s="6">
+        <v>5877</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5">
-        <v>3.1</v>
-      </c>
-      <c r="D30" s="5">
-        <v>3.6509999999999998</v>
-      </c>
-      <c r="E30" s="5">
-        <v>39.674999999999997</v>
-      </c>
-      <c r="F30" s="5">
-        <v>16.972000000000001</v>
-      </c>
-      <c r="G30" s="5">
-        <v>26.14</v>
-      </c>
-      <c r="H30" s="5">
-        <v>67.290000000000006</v>
-      </c>
-      <c r="I30" s="5">
-        <v>40.905000000000001</v>
-      </c>
-      <c r="J30" s="5">
-        <v>4.282</v>
-      </c>
-      <c r="K30" s="5">
+      <c r="B30" s="7"/>
+      <c r="C30" s="6">
+        <v>3100</v>
+      </c>
+      <c r="D30" s="6">
+        <v>3651</v>
+      </c>
+      <c r="E30" s="6">
+        <v>39675</v>
+      </c>
+      <c r="F30" s="6">
+        <v>16972</v>
+      </c>
+      <c r="G30" s="6">
+        <v>26140</v>
+      </c>
+      <c r="H30" s="6">
+        <v>67290</v>
+      </c>
+      <c r="I30" s="6">
+        <v>40905</v>
+      </c>
+      <c r="J30" s="6">
+        <v>4282</v>
+      </c>
+      <c r="K30" s="8">
         <v>518</v>
       </c>
-      <c r="L30" s="5">
-        <v>2.1459999999999999</v>
-      </c>
-      <c r="M30" s="5">
-        <v>204.679</v>
+      <c r="L30" s="6">
+        <v>2146</v>
+      </c>
+      <c r="M30" s="6">
+        <v>204679</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="2" t="s">
         <v>2</v>
       </c>
@@ -2186,11 +2200,11 @@
       <c r="F32" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="4">
-        <v>1.2809999999999999</v>
-      </c>
-      <c r="H32" s="4">
-        <v>3.1360000000000001</v>
+      <c r="G32" s="5">
+        <v>1281</v>
+      </c>
+      <c r="H32" s="5">
+        <v>3136</v>
       </c>
       <c r="I32" s="4">
         <v>471</v>
@@ -2204,8 +2218,8 @@
       <c r="L32" s="4">
         <v>65</v>
       </c>
-      <c r="M32" s="5">
-        <v>4.9729999999999999</v>
+      <c r="M32" s="6">
+        <v>4973</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2225,11 +2239,11 @@
       <c r="F33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="4">
-        <v>1.02</v>
-      </c>
-      <c r="H33" s="4">
-        <v>3.1429999999999998</v>
+      <c r="G33" s="5">
+        <v>1020</v>
+      </c>
+      <c r="H33" s="5">
+        <v>3143</v>
       </c>
       <c r="I33" s="4">
         <v>863</v>
@@ -2243,8 +2257,8 @@
       <c r="L33" s="4">
         <v>16</v>
       </c>
-      <c r="M33" s="5">
-        <v>5.0860000000000003</v>
+      <c r="M33" s="6">
+        <v>5086</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2269,11 +2283,11 @@
       <c r="G34" s="4">
         <v>896</v>
       </c>
-      <c r="H34" s="4">
-        <v>1.425</v>
-      </c>
-      <c r="I34" s="4">
-        <v>1.111</v>
+      <c r="H34" s="5">
+        <v>1425</v>
+      </c>
+      <c r="I34" s="5">
+        <v>1111</v>
       </c>
       <c r="J34" s="4">
         <v>60</v>
@@ -2284,8 +2298,8 @@
       <c r="L34" s="4">
         <v>21</v>
       </c>
-      <c r="M34" s="5">
-        <v>3.5470000000000002</v>
+      <c r="M34" s="6">
+        <v>3547</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2308,11 +2322,11 @@
       <c r="G35" s="4">
         <v>896</v>
       </c>
-      <c r="H35" s="4">
-        <v>1.0820000000000001</v>
-      </c>
-      <c r="I35" s="4">
-        <v>1.3169999999999999</v>
+      <c r="H35" s="5">
+        <v>1082</v>
+      </c>
+      <c r="I35" s="5">
+        <v>1317</v>
       </c>
       <c r="J35" s="4">
         <v>98</v>
@@ -2323,8 +2337,8 @@
       <c r="L35" s="4">
         <v>22</v>
       </c>
-      <c r="M35" s="5">
-        <v>3.4820000000000002</v>
+      <c r="M35" s="6">
+        <v>3482</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2349,8 +2363,8 @@
       <c r="G36" s="4">
         <v>397</v>
       </c>
-      <c r="H36" s="4">
-        <v>1.2969999999999999</v>
+      <c r="H36" s="5">
+        <v>1297</v>
       </c>
       <c r="I36" s="4">
         <v>892</v>
@@ -2364,8 +2378,8 @@
       <c r="L36" s="4">
         <v>22</v>
       </c>
-      <c r="M36" s="5">
-        <v>3.2629999999999999</v>
+      <c r="M36" s="6">
+        <v>3263</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2403,8 +2417,8 @@
       <c r="L37" s="4">
         <v>32</v>
       </c>
-      <c r="M37" s="5">
-        <v>3.1320000000000001</v>
+      <c r="M37" s="6">
+        <v>3132</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2429,8 +2443,8 @@
       <c r="G38" s="4">
         <v>329</v>
       </c>
-      <c r="H38" s="4">
-        <v>1.218</v>
+      <c r="H38" s="5">
+        <v>1218</v>
       </c>
       <c r="I38" s="4">
         <v>667</v>
@@ -2444,8 +2458,8 @@
       <c r="L38" s="4">
         <v>36</v>
       </c>
-      <c r="M38" s="5">
-        <v>3.1619999999999999</v>
+      <c r="M38" s="6">
+        <v>3162</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2483,8 +2497,8 @@
       <c r="L39" s="4">
         <v>18</v>
       </c>
-      <c r="M39" s="5">
-        <v>3.0259999999999998</v>
+      <c r="M39" s="6">
+        <v>3026</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2509,8 +2523,8 @@
       <c r="G40" s="4">
         <v>732</v>
       </c>
-      <c r="H40" s="4">
-        <v>1.375</v>
+      <c r="H40" s="5">
+        <v>1375</v>
       </c>
       <c r="I40" s="4">
         <v>469</v>
@@ -2524,8 +2538,8 @@
       <c r="L40" s="4">
         <v>28</v>
       </c>
-      <c r="M40" s="5">
-        <v>3.5710000000000002</v>
+      <c r="M40" s="6">
+        <v>3571</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2539,8 +2553,8 @@
       <c r="D41" s="4">
         <v>10</v>
       </c>
-      <c r="E41" s="4">
-        <v>1.0189999999999999</v>
+      <c r="E41" s="5">
+        <v>1019</v>
       </c>
       <c r="F41" s="4">
         <v>568</v>
@@ -2563,8 +2577,8 @@
       <c r="L41" s="4">
         <v>32</v>
       </c>
-      <c r="M41" s="5">
-        <v>3.452</v>
+      <c r="M41" s="6">
+        <v>3452</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2589,8 +2603,8 @@
       <c r="G42" s="4">
         <v>675</v>
       </c>
-      <c r="H42" s="4">
-        <v>1.145</v>
+      <c r="H42" s="5">
+        <v>1145</v>
       </c>
       <c r="I42" s="4">
         <v>328</v>
@@ -2604,8 +2618,8 @@
       <c r="L42" s="4">
         <v>26</v>
       </c>
-      <c r="M42" s="5">
-        <v>3.2989999999999999</v>
+      <c r="M42" s="6">
+        <v>3299</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2619,8 +2633,8 @@
       <c r="D43" s="4">
         <v>18</v>
       </c>
-      <c r="E43" s="4">
-        <v>1.3009999999999999</v>
+      <c r="E43" s="5">
+        <v>1301</v>
       </c>
       <c r="F43" s="4">
         <v>541</v>
@@ -2643,8 +2657,8 @@
       <c r="L43" s="4">
         <v>23</v>
       </c>
-      <c r="M43" s="5">
-        <v>3.3069999999999999</v>
+      <c r="M43" s="6">
+        <v>3307</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2684,8 +2698,8 @@
       <c r="L44" s="4">
         <v>34</v>
       </c>
-      <c r="M44" s="5">
-        <v>3.0539999999999998</v>
+      <c r="M44" s="6">
+        <v>3054</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2699,8 +2713,8 @@
       <c r="D45" s="4">
         <v>36</v>
       </c>
-      <c r="E45" s="4">
-        <v>1.482</v>
+      <c r="E45" s="5">
+        <v>1482</v>
       </c>
       <c r="F45" s="4">
         <v>465</v>
@@ -2723,8 +2737,8 @@
       <c r="L45" s="4">
         <v>46</v>
       </c>
-      <c r="M45" s="5">
-        <v>2.9430000000000001</v>
+      <c r="M45" s="6">
+        <v>2943</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2764,8 +2778,8 @@
       <c r="L46" s="4">
         <v>41</v>
       </c>
-      <c r="M46" s="5">
-        <v>2.7989999999999999</v>
+      <c r="M46" s="6">
+        <v>2799</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2779,8 +2793,8 @@
       <c r="D47" s="4">
         <v>93</v>
       </c>
-      <c r="E47" s="4">
-        <v>1.694</v>
+      <c r="E47" s="5">
+        <v>1694</v>
       </c>
       <c r="F47" s="4">
         <v>316</v>
@@ -2803,8 +2817,8 @@
       <c r="L47" s="4">
         <v>44</v>
       </c>
-      <c r="M47" s="5">
-        <v>2.7730000000000001</v>
+      <c r="M47" s="6">
+        <v>2773</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2820,8 +2834,8 @@
       <c r="D48" s="4">
         <v>12</v>
       </c>
-      <c r="E48" s="4">
-        <v>1.163</v>
+      <c r="E48" s="5">
+        <v>1163</v>
       </c>
       <c r="F48" s="4">
         <v>306</v>
@@ -2844,8 +2858,8 @@
       <c r="L48" s="4">
         <v>43</v>
       </c>
-      <c r="M48" s="5">
-        <v>2.383</v>
+      <c r="M48" s="6">
+        <v>2383</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2859,8 +2873,8 @@
       <c r="D49" s="4">
         <v>194</v>
       </c>
-      <c r="E49" s="4">
-        <v>1.577</v>
+      <c r="E49" s="5">
+        <v>1577</v>
       </c>
       <c r="F49" s="4">
         <v>162</v>
@@ -2883,8 +2897,8 @@
       <c r="L49" s="4">
         <v>55</v>
       </c>
-      <c r="M49" s="5">
-        <v>2.4700000000000002</v>
+      <c r="M49" s="6">
+        <v>2470</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2900,8 +2914,8 @@
       <c r="D50" s="4">
         <v>23</v>
       </c>
-      <c r="E50" s="4">
-        <v>1.1040000000000001</v>
+      <c r="E50" s="5">
+        <v>1104</v>
       </c>
       <c r="F50" s="4">
         <v>158</v>
@@ -2924,8 +2938,8 @@
       <c r="L50" s="4">
         <v>70</v>
       </c>
-      <c r="M50" s="5">
-        <v>1.9410000000000001</v>
+      <c r="M50" s="6">
+        <v>1941</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2939,8 +2953,8 @@
       <c r="D51" s="4">
         <v>269</v>
       </c>
-      <c r="E51" s="4">
-        <v>1.304</v>
+      <c r="E51" s="5">
+        <v>1304</v>
       </c>
       <c r="F51" s="4">
         <v>62</v>
@@ -2963,8 +2977,8 @@
       <c r="L51" s="4">
         <v>62</v>
       </c>
-      <c r="M51" s="5">
-        <v>2.105</v>
+      <c r="M51" s="6">
+        <v>2105</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -3004,8 +3018,8 @@
       <c r="L52" s="4">
         <v>48</v>
       </c>
-      <c r="M52" s="5">
-        <v>1.4339999999999999</v>
+      <c r="M52" s="6">
+        <v>1434</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -3043,8 +3057,8 @@
       <c r="L53" s="4">
         <v>30</v>
       </c>
-      <c r="M53" s="5">
-        <v>1.444</v>
+      <c r="M53" s="6">
+        <v>1444</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -3060,8 +3074,8 @@
       <c r="D54" s="4">
         <v>197</v>
       </c>
-      <c r="E54" s="4">
-        <v>1.0469999999999999</v>
+      <c r="E54" s="5">
+        <v>1047</v>
       </c>
       <c r="F54" s="4">
         <v>20</v>
@@ -3084,8 +3098,8 @@
       <c r="L54" s="4">
         <v>36</v>
       </c>
-      <c r="M54" s="5">
-        <v>1.5760000000000001</v>
+      <c r="M54" s="6">
+        <v>1576</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -3123,54 +3137,54 @@
       <c r="L55" s="4">
         <v>36</v>
       </c>
-      <c r="M55" s="5">
-        <v>2.2949999999999999</v>
+      <c r="M55" s="6">
+        <v>2295</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="5">
-        <v>2.0609999999999999</v>
-      </c>
-      <c r="D56" s="5">
-        <v>1.7150000000000001</v>
-      </c>
-      <c r="E56" s="5">
-        <v>17.286999999999999</v>
-      </c>
-      <c r="F56" s="5">
-        <v>7.5220000000000002</v>
-      </c>
-      <c r="G56" s="5">
-        <v>11.363</v>
-      </c>
-      <c r="H56" s="5">
-        <v>19.712</v>
-      </c>
-      <c r="I56" s="5">
-        <v>9.1630000000000003</v>
-      </c>
-      <c r="J56" s="5">
+      <c r="B56" s="7"/>
+      <c r="C56" s="6">
+        <v>2061</v>
+      </c>
+      <c r="D56" s="6">
+        <v>1715</v>
+      </c>
+      <c r="E56" s="6">
+        <v>17287</v>
+      </c>
+      <c r="F56" s="6">
+        <v>7522</v>
+      </c>
+      <c r="G56" s="6">
+        <v>11363</v>
+      </c>
+      <c r="H56" s="6">
+        <v>19712</v>
+      </c>
+      <c r="I56" s="6">
+        <v>9163</v>
+      </c>
+      <c r="J56" s="8">
         <v>734</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56" s="8">
         <v>74</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56" s="8">
         <v>886</v>
       </c>
-      <c r="M56" s="5">
-        <v>70.516999999999996</v>
+      <c r="M56" s="6">
+        <v>70517</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="8"/>
+      <c r="B57" s="9"/>
       <c r="C57" s="2" t="s">
         <v>2</v>
       </c>
@@ -3227,8 +3241,8 @@
       <c r="G58" s="4">
         <v>494</v>
       </c>
-      <c r="H58" s="4">
-        <v>1.736</v>
+      <c r="H58" s="5">
+        <v>1736</v>
       </c>
       <c r="I58" s="4">
         <v>273</v>
@@ -3242,8 +3256,8 @@
       <c r="L58" s="4">
         <v>24</v>
       </c>
-      <c r="M58" s="5">
-        <v>2.5489999999999999</v>
+      <c r="M58" s="6">
+        <v>2549</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3266,8 +3280,8 @@
       <c r="G59" s="4">
         <v>484</v>
       </c>
-      <c r="H59" s="4">
-        <v>1.536</v>
+      <c r="H59" s="5">
+        <v>1536</v>
       </c>
       <c r="I59" s="4">
         <v>488</v>
@@ -3281,8 +3295,8 @@
       <c r="L59" s="4">
         <v>8</v>
       </c>
-      <c r="M59" s="5">
-        <v>2.56</v>
+      <c r="M59" s="6">
+        <v>2560</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3322,8 +3336,8 @@
       <c r="L60" s="4">
         <v>6</v>
       </c>
-      <c r="M60" s="5">
-        <v>2.0699999999999998</v>
+      <c r="M60" s="6">
+        <v>2070</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3361,8 +3375,8 @@
       <c r="L61" s="4">
         <v>11</v>
       </c>
-      <c r="M61" s="5">
-        <v>1.9470000000000001</v>
+      <c r="M61" s="6">
+        <v>1947</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3402,8 +3416,8 @@
       <c r="L62" s="4">
         <v>12</v>
       </c>
-      <c r="M62" s="5">
-        <v>1.853</v>
+      <c r="M62" s="6">
+        <v>1853</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3441,8 +3455,8 @@
       <c r="L63" s="4">
         <v>12</v>
       </c>
-      <c r="M63" s="5">
-        <v>1.821</v>
+      <c r="M63" s="6">
+        <v>1821</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3482,8 +3496,8 @@
       <c r="L64" s="4">
         <v>16</v>
       </c>
-      <c r="M64" s="5">
-        <v>1.8440000000000001</v>
+      <c r="M64" s="6">
+        <v>1844</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3521,8 +3535,8 @@
       <c r="L65" s="4">
         <v>20</v>
       </c>
-      <c r="M65" s="5">
-        <v>1.7290000000000001</v>
+      <c r="M65" s="6">
+        <v>1729</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -3562,8 +3576,8 @@
       <c r="L66" s="4">
         <v>11</v>
       </c>
-      <c r="M66" s="5">
-        <v>1.915</v>
+      <c r="M66" s="6">
+        <v>1915</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3601,8 +3615,8 @@
       <c r="L67" s="4">
         <v>10</v>
       </c>
-      <c r="M67" s="5">
-        <v>1.8149999999999999</v>
+      <c r="M67" s="6">
+        <v>1815</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -3642,8 +3656,8 @@
       <c r="L68" s="4">
         <v>9</v>
       </c>
-      <c r="M68" s="5">
-        <v>1.601</v>
+      <c r="M68" s="6">
+        <v>1601</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3681,8 +3695,8 @@
       <c r="L69" s="4">
         <v>8</v>
       </c>
-      <c r="M69" s="5">
-        <v>1.528</v>
+      <c r="M69" s="6">
+        <v>1528</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3722,8 +3736,8 @@
       <c r="L70" s="4">
         <v>9</v>
       </c>
-      <c r="M70" s="5">
-        <v>1.4630000000000001</v>
+      <c r="M70" s="6">
+        <v>1463</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3761,8 +3775,8 @@
       <c r="L71" s="4">
         <v>11</v>
       </c>
-      <c r="M71" s="5">
-        <v>1.4450000000000001</v>
+      <c r="M71" s="6">
+        <v>1445</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3802,8 +3816,8 @@
       <c r="L72" s="4">
         <v>12</v>
       </c>
-      <c r="M72" s="5">
-        <v>1.238</v>
+      <c r="M72" s="6">
+        <v>1238</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -3841,8 +3855,8 @@
       <c r="L73" s="4">
         <v>17</v>
       </c>
-      <c r="M73" s="5">
-        <v>1.246</v>
+      <c r="M73" s="6">
+        <v>1246</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -3882,8 +3896,8 @@
       <c r="L74" s="4">
         <v>10</v>
       </c>
-      <c r="M74" s="5">
-        <v>1.077</v>
+      <c r="M74" s="6">
+        <v>1077</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -3921,8 +3935,8 @@
       <c r="L75" s="4">
         <v>11</v>
       </c>
-      <c r="M75" s="5">
-        <v>1.042</v>
+      <c r="M75" s="6">
+        <v>1042</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -3962,7 +3976,7 @@
       <c r="L76" s="4">
         <v>11</v>
       </c>
-      <c r="M76" s="5">
+      <c r="M76" s="8">
         <v>836</v>
       </c>
     </row>
@@ -4001,7 +4015,7 @@
       <c r="L77" s="4">
         <v>14</v>
       </c>
-      <c r="M77" s="5">
+      <c r="M77" s="8">
         <v>904</v>
       </c>
     </row>
@@ -4042,7 +4056,7 @@
       <c r="L78" s="4">
         <v>9</v>
       </c>
-      <c r="M78" s="5">
+      <c r="M78" s="8">
         <v>524</v>
       </c>
     </row>
@@ -4081,7 +4095,7 @@
       <c r="L79" s="4">
         <v>7</v>
       </c>
-      <c r="M79" s="5">
+      <c r="M79" s="8">
         <v>580</v>
       </c>
     </row>
@@ -4122,7 +4136,7 @@
       <c r="L80" s="4">
         <v>14</v>
       </c>
-      <c r="M80" s="5">
+      <c r="M80" s="8">
         <v>543</v>
       </c>
     </row>
@@ -4161,7 +4175,7 @@
       <c r="L81" s="4">
         <v>17</v>
       </c>
-      <c r="M81" s="5">
+      <c r="M81" s="8">
         <v>864</v>
       </c>
     </row>
@@ -4169,46 +4183,46 @@
       <c r="A82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="5">
+      <c r="B82" s="7"/>
+      <c r="C82" s="8">
         <v>530</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="8">
         <v>752</v>
       </c>
-      <c r="E82" s="5">
-        <v>6.7370000000000001</v>
-      </c>
-      <c r="F82" s="5">
-        <v>3.16</v>
-      </c>
-      <c r="G82" s="5">
-        <v>5.0039999999999996</v>
-      </c>
-      <c r="H82" s="5">
-        <v>11.798</v>
-      </c>
-      <c r="I82" s="5">
-        <v>6.1239999999999997</v>
-      </c>
-      <c r="J82" s="5">
+      <c r="E82" s="6">
+        <v>6737</v>
+      </c>
+      <c r="F82" s="6">
+        <v>3160</v>
+      </c>
+      <c r="G82" s="6">
+        <v>5004</v>
+      </c>
+      <c r="H82" s="6">
+        <v>11798</v>
+      </c>
+      <c r="I82" s="6">
+        <v>6124</v>
+      </c>
+      <c r="J82" s="8">
         <v>532</v>
       </c>
-      <c r="K82" s="5">
+      <c r="K82" s="8">
         <v>68</v>
       </c>
-      <c r="L82" s="5">
+      <c r="L82" s="8">
         <v>289</v>
       </c>
-      <c r="M82" s="5">
-        <v>34.994</v>
+      <c r="M82" s="6">
+        <v>34994</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="8"/>
+      <c r="B83" s="9"/>
       <c r="C83" s="2" t="s">
         <v>2</v>
       </c>
@@ -4262,11 +4276,11 @@
       <c r="F84" s="4">
         <v>6</v>
       </c>
-      <c r="G84" s="4">
-        <v>1.115</v>
-      </c>
-      <c r="H84" s="4">
-        <v>2.9140000000000001</v>
+      <c r="G84" s="5">
+        <v>1115</v>
+      </c>
+      <c r="H84" s="5">
+        <v>2914</v>
       </c>
       <c r="I84" s="4">
         <v>476</v>
@@ -4280,8 +4294,8 @@
       <c r="L84" s="4">
         <v>65</v>
       </c>
-      <c r="M84" s="5">
-        <v>4.6210000000000004</v>
+      <c r="M84" s="6">
+        <v>4621</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4304,8 +4318,8 @@
       <c r="G85" s="4">
         <v>796</v>
       </c>
-      <c r="H85" s="4">
-        <v>2.9420000000000002</v>
+      <c r="H85" s="5">
+        <v>2942</v>
       </c>
       <c r="I85" s="4">
         <v>857</v>
@@ -4319,8 +4333,8 @@
       <c r="L85" s="4">
         <v>21</v>
       </c>
-      <c r="M85" s="5">
-        <v>4.7130000000000001</v>
+      <c r="M85" s="6">
+        <v>4713</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4345,11 +4359,11 @@
       <c r="G86" s="4">
         <v>756</v>
       </c>
-      <c r="H86" s="4">
-        <v>1.3740000000000001</v>
-      </c>
-      <c r="I86" s="4">
-        <v>1.131</v>
+      <c r="H86" s="5">
+        <v>1374</v>
+      </c>
+      <c r="I86" s="5">
+        <v>1131</v>
       </c>
       <c r="J86" s="4">
         <v>79</v>
@@ -4360,8 +4374,8 @@
       <c r="L86" s="4">
         <v>21</v>
       </c>
-      <c r="M86" s="5">
-        <v>3.4319999999999999</v>
+      <c r="M86" s="6">
+        <v>3432</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -4387,8 +4401,8 @@
       <c r="H87" s="4">
         <v>961</v>
       </c>
-      <c r="I87" s="4">
-        <v>1.5629999999999999</v>
+      <c r="I87" s="5">
+        <v>1563</v>
       </c>
       <c r="J87" s="4">
         <v>99</v>
@@ -4399,8 +4413,8 @@
       <c r="L87" s="4">
         <v>32</v>
       </c>
-      <c r="M87" s="5">
-        <v>3.484</v>
+      <c r="M87" s="6">
+        <v>3484</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -4425,11 +4439,11 @@
       <c r="G88" s="4">
         <v>361</v>
       </c>
-      <c r="H88" s="4">
-        <v>1.3560000000000001</v>
-      </c>
-      <c r="I88" s="4">
-        <v>1.155</v>
+      <c r="H88" s="5">
+        <v>1356</v>
+      </c>
+      <c r="I88" s="5">
+        <v>1155</v>
       </c>
       <c r="J88" s="4">
         <v>111</v>
@@ -4440,8 +4454,8 @@
       <c r="L88" s="4">
         <v>23</v>
       </c>
-      <c r="M88" s="5">
-        <v>3.4209999999999998</v>
+      <c r="M88" s="6">
+        <v>3421</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -4464,11 +4478,11 @@
       <c r="G89" s="4">
         <v>325</v>
       </c>
-      <c r="H89" s="4">
-        <v>1.038</v>
-      </c>
-      <c r="I89" s="4">
-        <v>1.2529999999999999</v>
+      <c r="H89" s="5">
+        <v>1038</v>
+      </c>
+      <c r="I89" s="5">
+        <v>1253</v>
       </c>
       <c r="J89" s="4">
         <v>124</v>
@@ -4479,8 +4493,8 @@
       <c r="L89" s="4">
         <v>33</v>
       </c>
-      <c r="M89" s="5">
-        <v>3.3479999999999999</v>
+      <c r="M89" s="6">
+        <v>3348</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -4505,8 +4519,8 @@
       <c r="G90" s="4">
         <v>286</v>
       </c>
-      <c r="H90" s="4">
-        <v>1.3839999999999999</v>
+      <c r="H90" s="5">
+        <v>1384</v>
       </c>
       <c r="I90" s="4">
         <v>856</v>
@@ -4520,8 +4534,8 @@
       <c r="L90" s="4">
         <v>31</v>
       </c>
-      <c r="M90" s="5">
-        <v>3.36</v>
+      <c r="M90" s="6">
+        <v>3360</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -4544,8 +4558,8 @@
       <c r="G91" s="4">
         <v>359</v>
       </c>
-      <c r="H91" s="4">
-        <v>1.2370000000000001</v>
+      <c r="H91" s="5">
+        <v>1237</v>
       </c>
       <c r="I91" s="4">
         <v>773</v>
@@ -4559,8 +4573,8 @@
       <c r="L91" s="4">
         <v>24</v>
       </c>
-      <c r="M91" s="5">
-        <v>3.4260000000000002</v>
+      <c r="M91" s="6">
+        <v>3426</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -4585,8 +4599,8 @@
       <c r="G92" s="4">
         <v>591</v>
       </c>
-      <c r="H92" s="4">
-        <v>1.468</v>
+      <c r="H92" s="5">
+        <v>1468</v>
       </c>
       <c r="I92" s="4">
         <v>680</v>
@@ -4600,8 +4614,8 @@
       <c r="L92" s="4">
         <v>26</v>
       </c>
-      <c r="M92" s="5">
-        <v>3.6419999999999999</v>
+      <c r="M92" s="6">
+        <v>3642</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -4624,8 +4638,8 @@
       <c r="G93" s="4">
         <v>510</v>
       </c>
-      <c r="H93" s="4">
-        <v>1.25</v>
+      <c r="H93" s="5">
+        <v>1250</v>
       </c>
       <c r="I93" s="4">
         <v>572</v>
@@ -4639,8 +4653,8 @@
       <c r="L93" s="4">
         <v>18</v>
       </c>
-      <c r="M93" s="5">
-        <v>3.6560000000000001</v>
+      <c r="M93" s="6">
+        <v>3656</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -4665,8 +4679,8 @@
       <c r="G94" s="4">
         <v>499</v>
       </c>
-      <c r="H94" s="4">
-        <v>1.0009999999999999</v>
+      <c r="H94" s="5">
+        <v>1001</v>
       </c>
       <c r="I94" s="4">
         <v>575</v>
@@ -4680,8 +4694,8 @@
       <c r="L94" s="4">
         <v>24</v>
       </c>
-      <c r="M94" s="5">
-        <v>3.1659999999999999</v>
+      <c r="M94" s="6">
+        <v>3166</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -4719,8 +4733,8 @@
       <c r="L95" s="4">
         <v>43</v>
       </c>
-      <c r="M95" s="5">
-        <v>3.1749999999999998</v>
+      <c r="M95" s="6">
+        <v>3175</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -4760,8 +4774,8 @@
       <c r="L96" s="4">
         <v>35</v>
       </c>
-      <c r="M96" s="5">
-        <v>2.8959999999999999</v>
+      <c r="M96" s="6">
+        <v>2896</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -4775,8 +4789,8 @@
       <c r="D97" s="4">
         <v>41</v>
       </c>
-      <c r="E97" s="4">
-        <v>1.0229999999999999</v>
+      <c r="E97" s="5">
+        <v>1023</v>
       </c>
       <c r="F97" s="4">
         <v>400</v>
@@ -4799,8 +4813,8 @@
       <c r="L97" s="4">
         <v>29</v>
       </c>
-      <c r="M97" s="5">
-        <v>2.7280000000000002</v>
+      <c r="M97" s="6">
+        <v>2728</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4840,8 +4854,8 @@
       <c r="L98" s="4">
         <v>42</v>
       </c>
-      <c r="M98" s="5">
-        <v>2.4470000000000001</v>
+      <c r="M98" s="6">
+        <v>2447</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -4855,8 +4869,8 @@
       <c r="D99" s="4">
         <v>80</v>
       </c>
-      <c r="E99" s="4">
-        <v>1.2110000000000001</v>
+      <c r="E99" s="5">
+        <v>1211</v>
       </c>
       <c r="F99" s="4">
         <v>263</v>
@@ -4879,8 +4893,8 @@
       <c r="L99" s="4">
         <v>35</v>
       </c>
-      <c r="M99" s="5">
-        <v>2.42</v>
+      <c r="M99" s="6">
+        <v>2420</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -4920,8 +4934,8 @@
       <c r="L100" s="4">
         <v>29</v>
       </c>
-      <c r="M100" s="5">
-        <v>1.956</v>
+      <c r="M100" s="6">
+        <v>1956</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -4935,8 +4949,8 @@
       <c r="D101" s="4">
         <v>109</v>
       </c>
-      <c r="E101" s="4">
-        <v>1.2769999999999999</v>
+      <c r="E101" s="5">
+        <v>1277</v>
       </c>
       <c r="F101" s="4">
         <v>134</v>
@@ -4959,8 +4973,8 @@
       <c r="L101" s="4">
         <v>34</v>
       </c>
-      <c r="M101" s="5">
-        <v>2.081</v>
+      <c r="M101" s="6">
+        <v>2081</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -5000,8 +5014,8 @@
       <c r="L102" s="4">
         <v>37</v>
       </c>
-      <c r="M102" s="5">
-        <v>1.6850000000000001</v>
+      <c r="M102" s="6">
+        <v>1685</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -5015,8 +5029,8 @@
       <c r="D103" s="4">
         <v>177</v>
       </c>
-      <c r="E103" s="4">
-        <v>1.1399999999999999</v>
+      <c r="E103" s="5">
+        <v>1140</v>
       </c>
       <c r="F103" s="4">
         <v>57</v>
@@ -5039,8 +5053,8 @@
       <c r="L103" s="4">
         <v>43</v>
       </c>
-      <c r="M103" s="5">
-        <v>1.7969999999999999</v>
+      <c r="M103" s="6">
+        <v>1797</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -5080,8 +5094,8 @@
       <c r="L104" s="4">
         <v>21</v>
       </c>
-      <c r="M104" s="5">
-        <v>1.1339999999999999</v>
+      <c r="M104" s="6">
+        <v>1134</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -5119,8 +5133,8 @@
       <c r="L105" s="4">
         <v>36</v>
       </c>
-      <c r="M105" s="5">
-        <v>1.282</v>
+      <c r="M105" s="6">
+        <v>1282</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -5160,8 +5174,8 @@
       <c r="L106" s="4">
         <v>29</v>
       </c>
-      <c r="M106" s="5">
-        <v>1.069</v>
+      <c r="M106" s="6">
+        <v>1069</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -5199,54 +5213,54 @@
       <c r="L107" s="4">
         <v>29</v>
       </c>
-      <c r="M107" s="5">
-        <v>1.5780000000000001</v>
+      <c r="M107" s="6">
+        <v>1578</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="6"/>
-      <c r="C108" s="5">
+      <c r="B108" s="7"/>
+      <c r="C108" s="8">
         <v>973</v>
       </c>
-      <c r="D108" s="5">
-        <v>1.284</v>
-      </c>
-      <c r="E108" s="5">
-        <v>13.635</v>
-      </c>
-      <c r="F108" s="5">
-        <v>5.9630000000000001</v>
-      </c>
-      <c r="G108" s="5">
-        <v>9.173</v>
-      </c>
-      <c r="H108" s="5">
-        <v>21.896999999999998</v>
-      </c>
-      <c r="I108" s="5">
-        <v>11.667999999999999</v>
-      </c>
-      <c r="J108" s="5">
-        <v>1.0620000000000001</v>
-      </c>
-      <c r="K108" s="5">
+      <c r="D108" s="6">
+        <v>1284</v>
+      </c>
+      <c r="E108" s="6">
+        <v>13635</v>
+      </c>
+      <c r="F108" s="6">
+        <v>5963</v>
+      </c>
+      <c r="G108" s="6">
+        <v>9173</v>
+      </c>
+      <c r="H108" s="6">
+        <v>21897</v>
+      </c>
+      <c r="I108" s="6">
+        <v>11668</v>
+      </c>
+      <c r="J108" s="6">
+        <v>1062</v>
+      </c>
+      <c r="K108" s="8">
         <v>102</v>
       </c>
-      <c r="L108" s="5">
+      <c r="L108" s="8">
         <v>760</v>
       </c>
-      <c r="M108" s="5">
-        <v>66.516999999999996</v>
+      <c r="M108" s="6">
+        <v>66517</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B109" s="8"/>
+      <c r="B109" s="9"/>
       <c r="C109" s="2" t="s">
         <v>2</v>
       </c>
@@ -5318,8 +5332,8 @@
       <c r="L110" s="4">
         <v>21</v>
       </c>
-      <c r="M110" s="5">
-        <v>1.444</v>
+      <c r="M110" s="6">
+        <v>1444</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5357,8 +5371,8 @@
       <c r="L111" s="4">
         <v>7</v>
       </c>
-      <c r="M111" s="5">
-        <v>1.329</v>
+      <c r="M111" s="6">
+        <v>1329</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5398,8 +5412,8 @@
       <c r="L112" s="4">
         <v>11</v>
       </c>
-      <c r="M112" s="5">
-        <v>1.052</v>
+      <c r="M112" s="6">
+        <v>1052</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -5437,8 +5451,8 @@
       <c r="L113" s="4">
         <v>7</v>
       </c>
-      <c r="M113" s="5">
-        <v>1.028</v>
+      <c r="M113" s="6">
+        <v>1028</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -5478,8 +5492,8 @@
       <c r="L114" s="4">
         <v>7</v>
       </c>
-      <c r="M114" s="5">
-        <v>1.046</v>
+      <c r="M114" s="6">
+        <v>1046</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -5517,7 +5531,7 @@
       <c r="L115" s="4">
         <v>9</v>
       </c>
-      <c r="M115" s="5">
+      <c r="M115" s="8">
         <v>980</v>
       </c>
     </row>
@@ -5558,7 +5572,7 @@
       <c r="L116" s="4">
         <v>9</v>
       </c>
-      <c r="M116" s="5">
+      <c r="M116" s="8">
         <v>993</v>
       </c>
     </row>
@@ -5597,7 +5611,7 @@
       <c r="L117" s="4">
         <v>10</v>
       </c>
-      <c r="M117" s="5">
+      <c r="M117" s="8">
         <v>877</v>
       </c>
     </row>
@@ -5638,8 +5652,8 @@
       <c r="L118" s="4">
         <v>11</v>
       </c>
-      <c r="M118" s="5">
-        <v>1.006</v>
+      <c r="M118" s="6">
+        <v>1006</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -5677,7 +5691,7 @@
       <c r="L119" s="4">
         <v>11</v>
       </c>
-      <c r="M119" s="5">
+      <c r="M119" s="8">
         <v>906</v>
       </c>
     </row>
@@ -5718,7 +5732,7 @@
       <c r="L120" s="4">
         <v>9</v>
       </c>
-      <c r="M120" s="5">
+      <c r="M120" s="8">
         <v>906</v>
       </c>
     </row>
@@ -5757,7 +5771,7 @@
       <c r="L121" s="4">
         <v>7</v>
       </c>
-      <c r="M121" s="5">
+      <c r="M121" s="8">
         <v>810</v>
       </c>
     </row>
@@ -5798,7 +5812,7 @@
       <c r="L122" s="4">
         <v>16</v>
       </c>
-      <c r="M122" s="5">
+      <c r="M122" s="8">
         <v>836</v>
       </c>
     </row>
@@ -5837,7 +5851,7 @@
       <c r="L123" s="4">
         <v>12</v>
       </c>
-      <c r="M123" s="5">
+      <c r="M123" s="8">
         <v>871</v>
       </c>
     </row>
@@ -5878,7 +5892,7 @@
       <c r="L124" s="4">
         <v>16</v>
       </c>
-      <c r="M124" s="5">
+      <c r="M124" s="8">
         <v>843</v>
       </c>
     </row>
@@ -5917,7 +5931,7 @@
       <c r="L125" s="4">
         <v>14</v>
       </c>
-      <c r="M125" s="5">
+      <c r="M125" s="8">
         <v>800</v>
       </c>
     </row>
@@ -5958,7 +5972,7 @@
       <c r="L126" s="4">
         <v>17</v>
       </c>
-      <c r="M126" s="5">
+      <c r="M126" s="8">
         <v>751</v>
       </c>
     </row>
@@ -5997,7 +6011,7 @@
       <c r="L127" s="4">
         <v>17</v>
       </c>
-      <c r="M127" s="5">
+      <c r="M127" s="8">
         <v>752</v>
       </c>
     </row>
@@ -6038,7 +6052,7 @@
       <c r="L128" s="4">
         <v>19</v>
       </c>
-      <c r="M128" s="5">
+      <c r="M128" s="8">
         <v>655</v>
       </c>
     </row>
@@ -6077,7 +6091,7 @@
       <c r="L129" s="4">
         <v>13</v>
       </c>
-      <c r="M129" s="5">
+      <c r="M129" s="8">
         <v>670</v>
       </c>
     </row>
@@ -6118,7 +6132,7 @@
       <c r="L130" s="4">
         <v>11</v>
       </c>
-      <c r="M130" s="5">
+      <c r="M130" s="8">
         <v>435</v>
       </c>
     </row>
@@ -6157,7 +6171,7 @@
       <c r="L131" s="4">
         <v>15</v>
       </c>
-      <c r="M131" s="5">
+      <c r="M131" s="8">
         <v>449</v>
       </c>
     </row>
@@ -6198,7 +6212,7 @@
       <c r="L132" s="4">
         <v>15</v>
       </c>
-      <c r="M132" s="5">
+      <c r="M132" s="8">
         <v>477</v>
       </c>
     </row>
@@ -6237,7 +6251,7 @@
       <c r="L133" s="4">
         <v>12</v>
       </c>
-      <c r="M133" s="5">
+      <c r="M133" s="8">
         <v>655</v>
       </c>
     </row>
@@ -6245,46 +6259,46 @@
       <c r="A134" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B134" s="6"/>
-      <c r="C134" s="5">
+      <c r="B134" s="7"/>
+      <c r="C134" s="8">
         <v>570</v>
       </c>
-      <c r="D134" s="5">
+      <c r="D134" s="8">
         <v>537</v>
       </c>
-      <c r="E134" s="5">
-        <v>5.34</v>
-      </c>
-      <c r="F134" s="5">
-        <v>2.1349999999999998</v>
-      </c>
-      <c r="G134" s="5">
-        <v>3.1419999999999999</v>
-      </c>
-      <c r="H134" s="5">
-        <v>5.7110000000000003</v>
-      </c>
-      <c r="I134" s="5">
-        <v>2.6230000000000002</v>
-      </c>
-      <c r="J134" s="5">
+      <c r="E134" s="6">
+        <v>5340</v>
+      </c>
+      <c r="F134" s="6">
+        <v>2135</v>
+      </c>
+      <c r="G134" s="6">
+        <v>3142</v>
+      </c>
+      <c r="H134" s="6">
+        <v>5711</v>
+      </c>
+      <c r="I134" s="6">
+        <v>2623</v>
+      </c>
+      <c r="J134" s="8">
         <v>196</v>
       </c>
-      <c r="K134" s="5">
+      <c r="K134" s="8">
         <v>21</v>
       </c>
-      <c r="L134" s="5">
+      <c r="L134" s="8">
         <v>296</v>
       </c>
-      <c r="M134" s="5">
-        <v>20.571000000000002</v>
+      <c r="M134" s="6">
+        <v>20571</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B135" s="8"/>
+      <c r="B135" s="9"/>
       <c r="C135" s="2" t="s">
         <v>2</v>
       </c>
@@ -6341,8 +6355,8 @@
       <c r="G136" s="4">
         <v>625</v>
       </c>
-      <c r="H136" s="4">
-        <v>1.5569999999999999</v>
+      <c r="H136" s="5">
+        <v>1557</v>
       </c>
       <c r="I136" s="4">
         <v>264</v>
@@ -6356,8 +6370,8 @@
       <c r="L136" s="4">
         <v>20</v>
       </c>
-      <c r="M136" s="5">
-        <v>2.508</v>
+      <c r="M136" s="6">
+        <v>2508</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -6380,8 +6394,8 @@
       <c r="G137" s="4">
         <v>494</v>
       </c>
-      <c r="H137" s="4">
-        <v>1.492</v>
+      <c r="H137" s="5">
+        <v>1492</v>
       </c>
       <c r="I137" s="4">
         <v>486</v>
@@ -6395,8 +6409,8 @@
       <c r="L137" s="4">
         <v>1</v>
       </c>
-      <c r="M137" s="5">
-        <v>2.5249999999999999</v>
+      <c r="M137" s="6">
+        <v>2525</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -6436,8 +6450,8 @@
       <c r="L138" s="4">
         <v>7</v>
       </c>
-      <c r="M138" s="5">
-        <v>1.7</v>
+      <c r="M138" s="6">
+        <v>1700</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -6475,8 +6489,8 @@
       <c r="L139" s="4">
         <v>6</v>
       </c>
-      <c r="M139" s="5">
-        <v>1.708</v>
+      <c r="M139" s="6">
+        <v>1708</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -6516,8 +6530,8 @@
       <c r="L140" s="4">
         <v>2</v>
       </c>
-      <c r="M140" s="5">
-        <v>1.7210000000000001</v>
+      <c r="M140" s="6">
+        <v>1721</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -6555,8 +6569,8 @@
       <c r="L141" s="4">
         <v>3</v>
       </c>
-      <c r="M141" s="5">
-        <v>1.611</v>
+      <c r="M141" s="6">
+        <v>1611</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -6596,8 +6610,8 @@
       <c r="L142" s="4">
         <v>6</v>
       </c>
-      <c r="M142" s="5">
-        <v>1.6830000000000001</v>
+      <c r="M142" s="6">
+        <v>1683</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -6635,8 +6649,8 @@
       <c r="L143" s="4">
         <v>8</v>
       </c>
-      <c r="M143" s="5">
-        <v>1.5960000000000001</v>
+      <c r="M143" s="6">
+        <v>1596</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -6676,8 +6690,8 @@
       <c r="L144" s="4">
         <v>3</v>
       </c>
-      <c r="M144" s="5">
-        <v>1.956</v>
+      <c r="M144" s="6">
+        <v>1956</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -6715,8 +6729,8 @@
       <c r="L145" s="4">
         <v>7</v>
       </c>
-      <c r="M145" s="5">
-        <v>1.7969999999999999</v>
+      <c r="M145" s="6">
+        <v>1797</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -6756,8 +6770,8 @@
       <c r="L146" s="4">
         <v>4</v>
       </c>
-      <c r="M146" s="5">
-        <v>1.716</v>
+      <c r="M146" s="6">
+        <v>1716</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
@@ -6795,8 +6809,8 @@
       <c r="L147" s="4">
         <v>4</v>
       </c>
-      <c r="M147" s="5">
-        <v>1.72</v>
+      <c r="M147" s="6">
+        <v>1720</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -6836,8 +6850,8 @@
       <c r="L148" s="4">
         <v>5</v>
       </c>
-      <c r="M148" s="5">
-        <v>1.5920000000000001</v>
+      <c r="M148" s="6">
+        <v>1592</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -6875,8 +6889,8 @@
       <c r="L149" s="4">
         <v>2</v>
       </c>
-      <c r="M149" s="5">
-        <v>1.577</v>
+      <c r="M149" s="6">
+        <v>1577</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -6916,8 +6930,8 @@
       <c r="L150" s="4">
         <v>6</v>
       </c>
-      <c r="M150" s="5">
-        <v>1.4470000000000001</v>
+      <c r="M150" s="6">
+        <v>1447</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -6955,8 +6969,8 @@
       <c r="L151" s="4">
         <v>11</v>
       </c>
-      <c r="M151" s="5">
-        <v>1.5149999999999999</v>
+      <c r="M151" s="6">
+        <v>1515</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -6996,8 +7010,8 @@
       <c r="L152" s="4">
         <v>4</v>
       </c>
-      <c r="M152" s="5">
-        <v>1.4570000000000001</v>
+      <c r="M152" s="6">
+        <v>1457</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
@@ -7011,8 +7025,8 @@
       <c r="D153" s="4">
         <v>72</v>
       </c>
-      <c r="E153" s="4">
-        <v>1.012</v>
+      <c r="E153" s="5">
+        <v>1012</v>
       </c>
       <c r="F153" s="4">
         <v>86</v>
@@ -7035,8 +7049,8 @@
       <c r="L153" s="4">
         <v>6</v>
       </c>
-      <c r="M153" s="5">
-        <v>1.4419999999999999</v>
+      <c r="M153" s="6">
+        <v>1442</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -7076,8 +7090,8 @@
       <c r="L154" s="4">
         <v>9</v>
       </c>
-      <c r="M154" s="5">
-        <v>1.1950000000000001</v>
+      <c r="M154" s="6">
+        <v>1195</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -7115,8 +7129,8 @@
       <c r="L155" s="4">
         <v>12</v>
       </c>
-      <c r="M155" s="5">
-        <v>1.3049999999999999</v>
+      <c r="M155" s="6">
+        <v>1305</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
@@ -7156,7 +7170,7 @@
       <c r="L156" s="4">
         <v>5</v>
       </c>
-      <c r="M156" s="5">
+      <c r="M156" s="8">
         <v>878</v>
       </c>
     </row>
@@ -7195,7 +7209,7 @@
       <c r="L157" s="4">
         <v>11</v>
       </c>
-      <c r="M157" s="5">
+      <c r="M157" s="8">
         <v>986</v>
       </c>
     </row>
@@ -7236,8 +7250,8 @@
       <c r="L158" s="4">
         <v>9</v>
       </c>
-      <c r="M158" s="5">
-        <v>1.0660000000000001</v>
+      <c r="M158" s="6">
+        <v>1066</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -7275,54 +7289,54 @@
       <c r="L159" s="4">
         <v>9</v>
       </c>
-      <c r="M159" s="5">
-        <v>1.488</v>
+      <c r="M159" s="6">
+        <v>1488</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B160" s="6"/>
-      <c r="C160" s="5">
-        <v>1.1870000000000001</v>
-      </c>
-      <c r="D160" s="5">
-        <v>1.1919999999999999</v>
-      </c>
-      <c r="E160" s="5">
-        <v>10.693</v>
-      </c>
-      <c r="F160" s="5">
-        <v>3.8769999999999998</v>
-      </c>
-      <c r="G160" s="5">
-        <v>5.67</v>
-      </c>
-      <c r="H160" s="5">
-        <v>9.8309999999999995</v>
-      </c>
-      <c r="I160" s="5">
-        <v>5.1319999999999997</v>
-      </c>
-      <c r="J160" s="5">
+      <c r="B160" s="7"/>
+      <c r="C160" s="6">
+        <v>1187</v>
+      </c>
+      <c r="D160" s="6">
+        <v>1192</v>
+      </c>
+      <c r="E160" s="6">
+        <v>10693</v>
+      </c>
+      <c r="F160" s="6">
+        <v>3877</v>
+      </c>
+      <c r="G160" s="6">
+        <v>5670</v>
+      </c>
+      <c r="H160" s="6">
+        <v>9831</v>
+      </c>
+      <c r="I160" s="6">
+        <v>5132</v>
+      </c>
+      <c r="J160" s="8">
         <v>414</v>
       </c>
-      <c r="K160" s="5">
+      <c r="K160" s="8">
         <v>33</v>
       </c>
-      <c r="L160" s="5">
+      <c r="L160" s="8">
         <v>160</v>
       </c>
-      <c r="M160" s="5">
-        <v>38.189</v>
+      <c r="M160" s="6">
+        <v>38189</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
+      <c r="A161" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B161" s="8"/>
+      <c r="B161" s="9"/>
       <c r="C161" s="2" t="s">
         <v>2</v>
       </c>
@@ -7376,11 +7390,11 @@
       <c r="F162" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G162" s="4">
-        <v>1.139</v>
-      </c>
-      <c r="H162" s="4">
-        <v>2.8010000000000002</v>
+      <c r="G162" s="5">
+        <v>1139</v>
+      </c>
+      <c r="H162" s="5">
+        <v>2801</v>
       </c>
       <c r="I162" s="4">
         <v>512</v>
@@ -7394,8 +7408,8 @@
       <c r="L162" s="4">
         <v>47</v>
       </c>
-      <c r="M162" s="5">
-        <v>4.57</v>
+      <c r="M162" s="6">
+        <v>4570</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -7418,8 +7432,8 @@
       <c r="G163" s="4">
         <v>809</v>
       </c>
-      <c r="H163" s="4">
-        <v>2.7130000000000001</v>
+      <c r="H163" s="5">
+        <v>2713</v>
       </c>
       <c r="I163" s="4">
         <v>880</v>
@@ -7433,8 +7447,8 @@
       <c r="L163" s="4">
         <v>16</v>
       </c>
-      <c r="M163" s="5">
-        <v>4.4980000000000002</v>
+      <c r="M163" s="6">
+        <v>4498</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -7459,11 +7473,11 @@
       <c r="G164" s="4">
         <v>731</v>
       </c>
-      <c r="H164" s="4">
-        <v>1.327</v>
-      </c>
-      <c r="I164" s="4">
-        <v>1.0129999999999999</v>
+      <c r="H164" s="5">
+        <v>1327</v>
+      </c>
+      <c r="I164" s="5">
+        <v>1013</v>
       </c>
       <c r="J164" s="4">
         <v>45</v>
@@ -7474,8 +7488,8 @@
       <c r="L164" s="4">
         <v>25</v>
       </c>
-      <c r="M164" s="5">
-        <v>3.1930000000000001</v>
+      <c r="M164" s="6">
+        <v>3193</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -7501,8 +7515,8 @@
       <c r="H165" s="4">
         <v>884</v>
       </c>
-      <c r="I165" s="4">
-        <v>1.3069999999999999</v>
+      <c r="I165" s="5">
+        <v>1307</v>
       </c>
       <c r="J165" s="4">
         <v>93</v>
@@ -7513,8 +7527,8 @@
       <c r="L165" s="4">
         <v>16</v>
       </c>
-      <c r="M165" s="5">
-        <v>3.1059999999999999</v>
+      <c r="M165" s="6">
+        <v>3106</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
@@ -7539,8 +7553,8 @@
       <c r="G166" s="4">
         <v>339</v>
       </c>
-      <c r="H166" s="4">
-        <v>1.3109999999999999</v>
+      <c r="H166" s="5">
+        <v>1311</v>
       </c>
       <c r="I166" s="4">
         <v>998</v>
@@ -7554,8 +7568,8 @@
       <c r="L166" s="4">
         <v>23</v>
       </c>
-      <c r="M166" s="5">
-        <v>3.2120000000000002</v>
+      <c r="M166" s="6">
+        <v>3212</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -7581,8 +7595,8 @@
       <c r="H167" s="4">
         <v>969</v>
       </c>
-      <c r="I167" s="4">
-        <v>1.1479999999999999</v>
+      <c r="I167" s="5">
+        <v>1148</v>
       </c>
       <c r="J167" s="4">
         <v>109</v>
@@ -7593,8 +7607,8 @@
       <c r="L167" s="4">
         <v>23</v>
       </c>
-      <c r="M167" s="5">
-        <v>3.286</v>
+      <c r="M167" s="6">
+        <v>3286</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
@@ -7619,8 +7633,8 @@
       <c r="G168" s="4">
         <v>303</v>
       </c>
-      <c r="H168" s="4">
-        <v>1.3109999999999999</v>
+      <c r="H168" s="5">
+        <v>1311</v>
       </c>
       <c r="I168" s="4">
         <v>805</v>
@@ -7634,8 +7648,8 @@
       <c r="L168" s="4">
         <v>15</v>
       </c>
-      <c r="M168" s="5">
-        <v>3.2050000000000001</v>
+      <c r="M168" s="6">
+        <v>3205</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -7673,8 +7687,8 @@
       <c r="L169" s="4">
         <v>24</v>
       </c>
-      <c r="M169" s="5">
-        <v>2.9729999999999999</v>
+      <c r="M169" s="6">
+        <v>2973</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
@@ -7699,8 +7713,8 @@
       <c r="G170" s="4">
         <v>567</v>
       </c>
-      <c r="H170" s="4">
-        <v>1.444</v>
+      <c r="H170" s="5">
+        <v>1444</v>
       </c>
       <c r="I170" s="4">
         <v>523</v>
@@ -7714,8 +7728,8 @@
       <c r="L170" s="4">
         <v>22</v>
       </c>
-      <c r="M170" s="5">
-        <v>3.3889999999999998</v>
+      <c r="M170" s="6">
+        <v>3389</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -7753,8 +7767,8 @@
       <c r="L171" s="4">
         <v>26</v>
       </c>
-      <c r="M171" s="5">
-        <v>3.323</v>
+      <c r="M171" s="6">
+        <v>3323</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -7779,8 +7793,8 @@
       <c r="G172" s="4">
         <v>564</v>
       </c>
-      <c r="H172" s="4">
-        <v>1.1539999999999999</v>
+      <c r="H172" s="5">
+        <v>1154</v>
       </c>
       <c r="I172" s="4">
         <v>413</v>
@@ -7794,8 +7808,8 @@
       <c r="L172" s="4">
         <v>22</v>
       </c>
-      <c r="M172" s="5">
-        <v>3.1110000000000002</v>
+      <c r="M172" s="6">
+        <v>3111</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
@@ -7809,8 +7823,8 @@
       <c r="D173" s="4">
         <v>40</v>
       </c>
-      <c r="E173" s="4">
-        <v>1.0980000000000001</v>
+      <c r="E173" s="5">
+        <v>1098</v>
       </c>
       <c r="F173" s="4">
         <v>323</v>
@@ -7833,8 +7847,8 @@
       <c r="L173" s="4">
         <v>20</v>
       </c>
-      <c r="M173" s="5">
-        <v>2.9969999999999999</v>
+      <c r="M173" s="6">
+        <v>2997</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
@@ -7874,8 +7888,8 @@
       <c r="L174" s="4">
         <v>31</v>
       </c>
-      <c r="M174" s="5">
-        <v>2.746</v>
+      <c r="M174" s="6">
+        <v>2746</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
@@ -7889,8 +7903,8 @@
       <c r="D175" s="4">
         <v>47</v>
       </c>
-      <c r="E175" s="4">
-        <v>1.161</v>
+      <c r="E175" s="5">
+        <v>1161</v>
       </c>
       <c r="F175" s="4">
         <v>330</v>
@@ -7913,8 +7927,8 @@
       <c r="L175" s="4">
         <v>26</v>
       </c>
-      <c r="M175" s="5">
-        <v>2.649</v>
+      <c r="M175" s="6">
+        <v>2649</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
@@ -7954,8 +7968,8 @@
       <c r="L176" s="4">
         <v>30</v>
       </c>
-      <c r="M176" s="5">
-        <v>2.4660000000000002</v>
+      <c r="M176" s="6">
+        <v>2466</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
@@ -7969,8 +7983,8 @@
       <c r="D177" s="4">
         <v>92</v>
       </c>
-      <c r="E177" s="4">
-        <v>1.4219999999999999</v>
+      <c r="E177" s="5">
+        <v>1422</v>
       </c>
       <c r="F177" s="4">
         <v>220</v>
@@ -7993,8 +8007,8 @@
       <c r="L177" s="4">
         <v>14</v>
       </c>
-      <c r="M177" s="5">
-        <v>2.5059999999999998</v>
+      <c r="M177" s="6">
+        <v>2506</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
@@ -8034,8 +8048,8 @@
       <c r="L178" s="4">
         <v>39</v>
       </c>
-      <c r="M178" s="5">
-        <v>2.278</v>
+      <c r="M178" s="6">
+        <v>2278</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -8049,8 +8063,8 @@
       <c r="D179" s="4">
         <v>138</v>
       </c>
-      <c r="E179" s="4">
-        <v>1.393</v>
+      <c r="E179" s="5">
+        <v>1393</v>
       </c>
       <c r="F179" s="4">
         <v>148</v>
@@ -8073,8 +8087,8 @@
       <c r="L179" s="4">
         <v>33</v>
       </c>
-      <c r="M179" s="5">
-        <v>2.3039999999999998</v>
+      <c r="M179" s="6">
+        <v>2304</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
@@ -8114,8 +8128,8 @@
       <c r="L180" s="4">
         <v>26</v>
       </c>
-      <c r="M180" s="5">
-        <v>1.86</v>
+      <c r="M180" s="6">
+        <v>1860</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
@@ -8129,8 +8143,8 @@
       <c r="D181" s="4">
         <v>198</v>
       </c>
-      <c r="E181" s="4">
-        <v>1.1559999999999999</v>
+      <c r="E181" s="5">
+        <v>1156</v>
       </c>
       <c r="F181" s="4">
         <v>51</v>
@@ -8153,8 +8167,8 @@
       <c r="L181" s="4">
         <v>32</v>
       </c>
-      <c r="M181" s="5">
-        <v>1.9350000000000001</v>
+      <c r="M181" s="6">
+        <v>1935</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
@@ -8194,8 +8208,8 @@
       <c r="L182" s="4">
         <v>21</v>
       </c>
-      <c r="M182" s="5">
-        <v>1.169</v>
+      <c r="M182" s="6">
+        <v>1169</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
@@ -8233,8 +8247,8 @@
       <c r="L183" s="4">
         <v>27</v>
       </c>
-      <c r="M183" s="5">
-        <v>1.3580000000000001</v>
+      <c r="M183" s="6">
+        <v>1358</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
@@ -8274,8 +8288,8 @@
       <c r="L184" s="4">
         <v>30</v>
       </c>
-      <c r="M184" s="5">
-        <v>1.31</v>
+      <c r="M184" s="6">
+        <v>1310</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
@@ -8313,54 +8327,54 @@
       <c r="L185" s="4">
         <v>36</v>
       </c>
-      <c r="M185" s="5">
-        <v>2.02</v>
+      <c r="M185" s="6">
+        <v>2020</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B186" s="6"/>
-      <c r="C186" s="5">
-        <v>1.7829999999999999</v>
-      </c>
-      <c r="D186" s="5">
-        <v>1.65</v>
-      </c>
-      <c r="E186" s="5">
-        <v>14.965</v>
-      </c>
-      <c r="F186" s="5">
-        <v>5.5839999999999996</v>
-      </c>
-      <c r="G186" s="5">
-        <v>9.9960000000000004</v>
-      </c>
-      <c r="H186" s="5">
-        <v>19.713000000000001</v>
-      </c>
-      <c r="I186" s="5">
-        <v>10.157999999999999</v>
-      </c>
-      <c r="J186" s="5">
+      <c r="B186" s="7"/>
+      <c r="C186" s="6">
+        <v>1783</v>
+      </c>
+      <c r="D186" s="6">
+        <v>1650</v>
+      </c>
+      <c r="E186" s="6">
+        <v>14965</v>
+      </c>
+      <c r="F186" s="6">
+        <v>5584</v>
+      </c>
+      <c r="G186" s="6">
+        <v>9996</v>
+      </c>
+      <c r="H186" s="6">
+        <v>19713</v>
+      </c>
+      <c r="I186" s="6">
+        <v>10158</v>
+      </c>
+      <c r="J186" s="8">
         <v>870</v>
       </c>
-      <c r="K186" s="5">
+      <c r="K186" s="8">
         <v>121</v>
       </c>
-      <c r="L186" s="5">
+      <c r="L186" s="8">
         <v>624</v>
       </c>
-      <c r="M186" s="5">
-        <v>65.463999999999999</v>
+      <c r="M186" s="6">
+        <v>65464</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A187" s="8" t="s">
+      <c r="A187" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B187" s="8"/>
+      <c r="B187" s="9"/>
       <c r="C187" s="2" t="s">
         <v>2</v>
       </c>
@@ -8432,7 +8446,7 @@
       <c r="L188" s="4">
         <v>9</v>
       </c>
-      <c r="M188" s="5">
+      <c r="M188" s="8">
         <v>786</v>
       </c>
     </row>
@@ -8471,7 +8485,7 @@
       <c r="L189" s="4">
         <v>1</v>
       </c>
-      <c r="M189" s="5">
+      <c r="M189" s="8">
         <v>771</v>
       </c>
     </row>
@@ -8512,7 +8526,7 @@
       <c r="L190" s="4">
         <v>2</v>
       </c>
-      <c r="M190" s="5">
+      <c r="M190" s="8">
         <v>539</v>
       </c>
     </row>
@@ -8551,7 +8565,7 @@
       <c r="L191" s="4">
         <v>1</v>
       </c>
-      <c r="M191" s="5">
+      <c r="M191" s="8">
         <v>497</v>
       </c>
     </row>
@@ -8592,7 +8606,7 @@
       <c r="L192" s="4">
         <v>1</v>
       </c>
-      <c r="M192" s="5">
+      <c r="M192" s="8">
         <v>468</v>
       </c>
     </row>
@@ -8631,7 +8645,7 @@
       <c r="L193" s="4">
         <v>4</v>
       </c>
-      <c r="M193" s="5">
+      <c r="M193" s="8">
         <v>414</v>
       </c>
     </row>
@@ -8672,7 +8686,7 @@
       <c r="L194" s="4">
         <v>3</v>
       </c>
-      <c r="M194" s="5">
+      <c r="M194" s="8">
         <v>474</v>
       </c>
     </row>
@@ -8711,7 +8725,7 @@
       <c r="L195" s="4">
         <v>1</v>
       </c>
-      <c r="M195" s="5">
+      <c r="M195" s="8">
         <v>410</v>
       </c>
     </row>
@@ -8752,7 +8766,7 @@
       <c r="L196" s="4">
         <v>1</v>
       </c>
-      <c r="M196" s="5">
+      <c r="M196" s="8">
         <v>484</v>
       </c>
     </row>
@@ -8791,7 +8805,7 @@
       <c r="L197" s="4">
         <v>3</v>
       </c>
-      <c r="M197" s="5">
+      <c r="M197" s="8">
         <v>431</v>
       </c>
     </row>
@@ -8832,7 +8846,7 @@
       <c r="L198" s="4">
         <v>5</v>
       </c>
-      <c r="M198" s="5">
+      <c r="M198" s="8">
         <v>420</v>
       </c>
     </row>
@@ -8871,7 +8885,7 @@
       <c r="L199" s="4">
         <v>5</v>
       </c>
-      <c r="M199" s="5">
+      <c r="M199" s="8">
         <v>372</v>
       </c>
     </row>
@@ -8912,7 +8926,7 @@
       <c r="L200" s="4">
         <v>3</v>
       </c>
-      <c r="M200" s="5">
+      <c r="M200" s="8">
         <v>410</v>
       </c>
     </row>
@@ -8951,7 +8965,7 @@
       <c r="L201" s="4">
         <v>4</v>
       </c>
-      <c r="M201" s="5">
+      <c r="M201" s="8">
         <v>425</v>
       </c>
     </row>
@@ -8992,7 +9006,7 @@
       <c r="L202" s="4">
         <v>7</v>
       </c>
-      <c r="M202" s="5">
+      <c r="M202" s="8">
         <v>376</v>
       </c>
     </row>
@@ -9031,7 +9045,7 @@
       <c r="L203" s="4">
         <v>7</v>
       </c>
-      <c r="M203" s="5">
+      <c r="M203" s="8">
         <v>397</v>
       </c>
     </row>
@@ -9072,7 +9086,7 @@
       <c r="L204" s="4">
         <v>9</v>
       </c>
-      <c r="M204" s="5">
+      <c r="M204" s="8">
         <v>390</v>
       </c>
     </row>
@@ -9111,7 +9125,7 @@
       <c r="L205" s="4">
         <v>11</v>
       </c>
-      <c r="M205" s="5">
+      <c r="M205" s="8">
         <v>334</v>
       </c>
     </row>
@@ -9152,7 +9166,7 @@
       <c r="L206" s="4">
         <v>8</v>
       </c>
-      <c r="M206" s="5">
+      <c r="M206" s="8">
         <v>264</v>
       </c>
     </row>
@@ -9191,7 +9205,7 @@
       <c r="L207" s="4">
         <v>5</v>
       </c>
-      <c r="M207" s="5">
+      <c r="M207" s="8">
         <v>296</v>
       </c>
     </row>
@@ -9232,7 +9246,7 @@
       <c r="L208" s="4">
         <v>2</v>
       </c>
-      <c r="M208" s="5">
+      <c r="M208" s="8">
         <v>189</v>
       </c>
     </row>
@@ -9271,7 +9285,7 @@
       <c r="L209" s="4">
         <v>3</v>
       </c>
-      <c r="M209" s="5">
+      <c r="M209" s="8">
         <v>177</v>
       </c>
     </row>
@@ -9312,7 +9326,7 @@
       <c r="L210" s="4">
         <v>4</v>
       </c>
-      <c r="M210" s="5">
+      <c r="M210" s="8">
         <v>201</v>
       </c>
     </row>
@@ -9351,7 +9365,7 @@
       <c r="L211" s="4">
         <v>5</v>
       </c>
-      <c r="M211" s="5">
+      <c r="M211" s="8">
         <v>319</v>
       </c>
     </row>
@@ -9359,46 +9373,46 @@
       <c r="A212" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B212" s="6"/>
-      <c r="C212" s="5">
+      <c r="B212" s="7"/>
+      <c r="C212" s="8">
         <v>328</v>
       </c>
-      <c r="D212" s="5">
+      <c r="D212" s="8">
         <v>246</v>
       </c>
-      <c r="E212" s="5">
-        <v>2.6589999999999998</v>
-      </c>
-      <c r="F212" s="5">
-        <v>1.1890000000000001</v>
-      </c>
-      <c r="G212" s="5">
-        <v>1.885</v>
-      </c>
-      <c r="H212" s="5">
-        <v>2.4169999999999998</v>
-      </c>
-      <c r="I212" s="5">
+      <c r="E212" s="6">
+        <v>2659</v>
+      </c>
+      <c r="F212" s="6">
+        <v>1189</v>
+      </c>
+      <c r="G212" s="6">
+        <v>1885</v>
+      </c>
+      <c r="H212" s="6">
+        <v>2417</v>
+      </c>
+      <c r="I212" s="8">
         <v>947</v>
       </c>
-      <c r="J212" s="5">
+      <c r="J212" s="8">
         <v>61</v>
       </c>
-      <c r="K212" s="5">
+      <c r="K212" s="8">
         <v>8</v>
       </c>
-      <c r="L212" s="5">
+      <c r="L212" s="8">
         <v>104</v>
       </c>
-      <c r="M212" s="5">
-        <v>9.8439999999999994</v>
+      <c r="M212" s="6">
+        <v>9844</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A213" s="8" t="s">
+      <c r="A213" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B213" s="8"/>
+      <c r="B213" s="9"/>
       <c r="C213" s="2" t="s">
         <v>2</v>
       </c>
@@ -9455,8 +9469,8 @@
       <c r="G214" s="4">
         <v>777</v>
       </c>
-      <c r="H214" s="4">
-        <v>2.1240000000000001</v>
+      <c r="H214" s="5">
+        <v>2124</v>
       </c>
       <c r="I214" s="4">
         <v>378</v>
@@ -9470,8 +9484,8 @@
       <c r="L214" s="4">
         <v>34</v>
       </c>
-      <c r="M214" s="5">
-        <v>3.343</v>
+      <c r="M214" s="6">
+        <v>3343</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
@@ -9494,8 +9508,8 @@
       <c r="G215" s="4">
         <v>577</v>
       </c>
-      <c r="H215" s="4">
-        <v>2.0510000000000002</v>
+      <c r="H215" s="5">
+        <v>2051</v>
       </c>
       <c r="I215" s="4">
         <v>632</v>
@@ -9509,8 +9523,8 @@
       <c r="L215" s="4">
         <v>21</v>
       </c>
-      <c r="M215" s="5">
-        <v>3.3210000000000002</v>
+      <c r="M215" s="6">
+        <v>3321</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
@@ -9550,8 +9564,8 @@
       <c r="L216" s="4">
         <v>18</v>
       </c>
-      <c r="M216" s="5">
-        <v>2.3940000000000001</v>
+      <c r="M216" s="6">
+        <v>2394</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
@@ -9577,8 +9591,8 @@
       <c r="H217" s="4">
         <v>650</v>
       </c>
-      <c r="I217" s="4">
-        <v>1.034</v>
+      <c r="I217" s="5">
+        <v>1034</v>
       </c>
       <c r="J217" s="4">
         <v>71</v>
@@ -9589,8 +9603,8 @@
       <c r="L217" s="4">
         <v>20</v>
       </c>
-      <c r="M217" s="5">
-        <v>2.3730000000000002</v>
+      <c r="M217" s="6">
+        <v>2373</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
@@ -9630,8 +9644,8 @@
       <c r="L218" s="4">
         <v>33</v>
       </c>
-      <c r="M218" s="5">
-        <v>2.4009999999999998</v>
+      <c r="M218" s="6">
+        <v>2401</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
@@ -9669,8 +9683,8 @@
       <c r="L219" s="4">
         <v>30</v>
       </c>
-      <c r="M219" s="5">
-        <v>2.3149999999999999</v>
+      <c r="M219" s="6">
+        <v>2315</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
@@ -9710,8 +9724,8 @@
       <c r="L220" s="4">
         <v>25</v>
       </c>
-      <c r="M220" s="5">
-        <v>2.2839999999999998</v>
+      <c r="M220" s="6">
+        <v>2284</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
@@ -9749,8 +9763,8 @@
       <c r="L221" s="4">
         <v>36</v>
       </c>
-      <c r="M221" s="5">
-        <v>2.294</v>
+      <c r="M221" s="6">
+        <v>2294</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
@@ -9790,8 +9804,8 @@
       <c r="L222" s="4">
         <v>46</v>
       </c>
-      <c r="M222" s="5">
-        <v>2.5329999999999999</v>
+      <c r="M222" s="6">
+        <v>2533</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
@@ -9829,8 +9843,8 @@
       <c r="L223" s="4">
         <v>36</v>
       </c>
-      <c r="M223" s="5">
-        <v>2.4540000000000002</v>
+      <c r="M223" s="6">
+        <v>2454</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
@@ -9870,8 +9884,8 @@
       <c r="L224" s="4">
         <v>57</v>
       </c>
-      <c r="M224" s="5">
-        <v>2.2719999999999998</v>
+      <c r="M224" s="6">
+        <v>2272</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
@@ -9909,8 +9923,8 @@
       <c r="L225" s="4">
         <v>55</v>
       </c>
-      <c r="M225" s="5">
-        <v>2.4209999999999998</v>
+      <c r="M225" s="6">
+        <v>2421</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
@@ -9950,8 +9964,8 @@
       <c r="L226" s="4">
         <v>53</v>
       </c>
-      <c r="M226" s="5">
-        <v>2.2810000000000001</v>
+      <c r="M226" s="6">
+        <v>2281</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
@@ -9965,8 +9979,8 @@
       <c r="D227" s="4">
         <v>48</v>
       </c>
-      <c r="E227" s="4">
-        <v>1.125</v>
+      <c r="E227" s="5">
+        <v>1125</v>
       </c>
       <c r="F227" s="4">
         <v>283</v>
@@ -9989,8 +10003,8 @@
       <c r="L227" s="4">
         <v>67</v>
       </c>
-      <c r="M227" s="5">
-        <v>2.4079999999999999</v>
+      <c r="M227" s="6">
+        <v>2408</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
@@ -10030,8 +10044,8 @@
       <c r="L228" s="4">
         <v>85</v>
       </c>
-      <c r="M228" s="5">
-        <v>2.4129999999999998</v>
+      <c r="M228" s="6">
+        <v>2413</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
@@ -10045,8 +10059,8 @@
       <c r="D229" s="4">
         <v>105</v>
       </c>
-      <c r="E229" s="4">
-        <v>1.4139999999999999</v>
+      <c r="E229" s="5">
+        <v>1414</v>
       </c>
       <c r="F229" s="4">
         <v>239</v>
@@ -10069,8 +10083,8 @@
       <c r="L229" s="4">
         <v>86</v>
       </c>
-      <c r="M229" s="5">
-        <v>2.5619999999999998</v>
+      <c r="M229" s="6">
+        <v>2562</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
@@ -10086,8 +10100,8 @@
       <c r="D230" s="4">
         <v>23</v>
       </c>
-      <c r="E230" s="4">
-        <v>1.0589999999999999</v>
+      <c r="E230" s="5">
+        <v>1059</v>
       </c>
       <c r="F230" s="4">
         <v>278</v>
@@ -10110,8 +10124,8 @@
       <c r="L230" s="4">
         <v>69</v>
       </c>
-      <c r="M230" s="5">
-        <v>2.3479999999999999</v>
+      <c r="M230" s="6">
+        <v>2348</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
@@ -10125,8 +10139,8 @@
       <c r="D231" s="4">
         <v>170</v>
       </c>
-      <c r="E231" s="4">
-        <v>1.3620000000000001</v>
+      <c r="E231" s="5">
+        <v>1362</v>
       </c>
       <c r="F231" s="4">
         <v>134</v>
@@ -10149,8 +10163,8 @@
       <c r="L231" s="4">
         <v>82</v>
       </c>
-      <c r="M231" s="5">
-        <v>2.2400000000000002</v>
+      <c r="M231" s="6">
+        <v>2240</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
@@ -10166,8 +10180,8 @@
       <c r="D232" s="4">
         <v>37</v>
       </c>
-      <c r="E232" s="4">
-        <v>1.0089999999999999</v>
+      <c r="E232" s="5">
+        <v>1009</v>
       </c>
       <c r="F232" s="4">
         <v>123</v>
@@ -10190,8 +10204,8 @@
       <c r="L232" s="4">
         <v>82</v>
       </c>
-      <c r="M232" s="5">
-        <v>1.871</v>
+      <c r="M232" s="6">
+        <v>1871</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
@@ -10205,8 +10219,8 @@
       <c r="D233" s="4">
         <v>262</v>
       </c>
-      <c r="E233" s="4">
-        <v>1.083</v>
+      <c r="E233" s="5">
+        <v>1083</v>
       </c>
       <c r="F233" s="4">
         <v>46</v>
@@ -10229,8 +10243,8 @@
       <c r="L233" s="4">
         <v>92</v>
       </c>
-      <c r="M233" s="5">
-        <v>1.958</v>
+      <c r="M233" s="6">
+        <v>1958</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
@@ -10270,8 +10284,8 @@
       <c r="L234" s="4">
         <v>59</v>
       </c>
-      <c r="M234" s="5">
-        <v>1.292</v>
+      <c r="M234" s="6">
+        <v>1292</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
@@ -10309,8 +10323,8 @@
       <c r="L235" s="4">
         <v>44</v>
       </c>
-      <c r="M235" s="5">
-        <v>1.264</v>
+      <c r="M235" s="6">
+        <v>1264</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
@@ -10350,8 +10364,8 @@
       <c r="L236" s="4">
         <v>46</v>
       </c>
-      <c r="M236" s="5">
-        <v>1.25</v>
+      <c r="M236" s="6">
+        <v>1250</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
@@ -10389,54 +10403,54 @@
       <c r="L237" s="4">
         <v>47</v>
       </c>
-      <c r="M237" s="5">
-        <v>1.7390000000000001</v>
+      <c r="M237" s="6">
+        <v>1739</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B238" s="6"/>
-      <c r="C238" s="5">
-        <v>1.542</v>
-      </c>
-      <c r="D238" s="5">
-        <v>1.7130000000000001</v>
-      </c>
-      <c r="E238" s="5">
-        <v>14.151</v>
-      </c>
-      <c r="F238" s="5">
-        <v>4.8170000000000002</v>
-      </c>
-      <c r="G238" s="5">
-        <v>8.1470000000000002</v>
-      </c>
-      <c r="H238" s="5">
-        <v>14.07</v>
-      </c>
-      <c r="I238" s="5">
-        <v>7.6790000000000003</v>
-      </c>
-      <c r="J238" s="5">
+      <c r="B238" s="7"/>
+      <c r="C238" s="6">
+        <v>1542</v>
+      </c>
+      <c r="D238" s="6">
+        <v>1713</v>
+      </c>
+      <c r="E238" s="6">
+        <v>14151</v>
+      </c>
+      <c r="F238" s="6">
+        <v>4817</v>
+      </c>
+      <c r="G238" s="6">
+        <v>8147</v>
+      </c>
+      <c r="H238" s="6">
+        <v>14070</v>
+      </c>
+      <c r="I238" s="6">
+        <v>7679</v>
+      </c>
+      <c r="J238" s="8">
         <v>659</v>
       </c>
-      <c r="K238" s="5">
+      <c r="K238" s="8">
         <v>30</v>
       </c>
-      <c r="L238" s="5">
-        <v>1.2230000000000001</v>
-      </c>
-      <c r="M238" s="5">
-        <v>54.030999999999999</v>
+      <c r="L238" s="6">
+        <v>1223</v>
+      </c>
+      <c r="M238" s="6">
+        <v>54031</v>
       </c>
     </row>
     <row r="239" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A239" s="8" t="s">
+      <c r="A239" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B239" s="8"/>
+      <c r="B239" s="9"/>
       <c r="C239" s="2" t="s">
         <v>2</v>
       </c>
@@ -10508,8 +10522,8 @@
       <c r="L240" s="4">
         <v>18</v>
       </c>
-      <c r="M240" s="5">
-        <v>1.337</v>
+      <c r="M240" s="6">
+        <v>1337</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
@@ -10547,8 +10561,8 @@
       <c r="L241" s="4">
         <v>6</v>
       </c>
-      <c r="M241" s="5">
-        <v>1.2310000000000001</v>
+      <c r="M241" s="6">
+        <v>1231</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
@@ -10588,7 +10602,7 @@
       <c r="L242" s="4">
         <v>10</v>
       </c>
-      <c r="M242" s="5">
+      <c r="M242" s="8">
         <v>922</v>
       </c>
     </row>
@@ -10627,7 +10641,7 @@
       <c r="L243" s="4">
         <v>10</v>
       </c>
-      <c r="M243" s="5">
+      <c r="M243" s="8">
         <v>816</v>
       </c>
     </row>
@@ -10668,7 +10682,7 @@
       <c r="L244" s="4">
         <v>8</v>
       </c>
-      <c r="M244" s="5">
+      <c r="M244" s="8">
         <v>820</v>
       </c>
     </row>
@@ -10707,7 +10721,7 @@
       <c r="L245" s="4">
         <v>9</v>
       </c>
-      <c r="M245" s="5">
+      <c r="M245" s="8">
         <v>741</v>
       </c>
     </row>
@@ -10748,7 +10762,7 @@
       <c r="L246" s="4">
         <v>13</v>
       </c>
-      <c r="M246" s="5">
+      <c r="M246" s="8">
         <v>856</v>
       </c>
     </row>
@@ -10787,7 +10801,7 @@
       <c r="L247" s="4">
         <v>8</v>
       </c>
-      <c r="M247" s="5">
+      <c r="M247" s="8">
         <v>706</v>
       </c>
     </row>
@@ -10828,7 +10842,7 @@
       <c r="L248" s="4">
         <v>11</v>
       </c>
-      <c r="M248" s="5">
+      <c r="M248" s="8">
         <v>854</v>
       </c>
     </row>
@@ -10867,7 +10881,7 @@
       <c r="L249" s="4">
         <v>11</v>
       </c>
-      <c r="M249" s="5">
+      <c r="M249" s="8">
         <v>745</v>
       </c>
     </row>
@@ -10908,7 +10922,7 @@
       <c r="L250" s="4">
         <v>9</v>
       </c>
-      <c r="M250" s="5">
+      <c r="M250" s="8">
         <v>797</v>
       </c>
     </row>
@@ -10947,7 +10961,7 @@
       <c r="L251" s="4">
         <v>1</v>
       </c>
-      <c r="M251" s="5">
+      <c r="M251" s="8">
         <v>733</v>
       </c>
     </row>
@@ -10988,7 +11002,7 @@
       <c r="L252" s="4">
         <v>4</v>
       </c>
-      <c r="M252" s="5">
+      <c r="M252" s="8">
         <v>824</v>
       </c>
     </row>
@@ -11027,7 +11041,7 @@
       <c r="L253" s="4">
         <v>11</v>
       </c>
-      <c r="M253" s="5">
+      <c r="M253" s="8">
         <v>806</v>
       </c>
     </row>
@@ -11068,7 +11082,7 @@
       <c r="L254" s="4">
         <v>7</v>
       </c>
-      <c r="M254" s="5">
+      <c r="M254" s="8">
         <v>865</v>
       </c>
     </row>
@@ -11107,7 +11121,7 @@
       <c r="L255" s="4">
         <v>9</v>
       </c>
-      <c r="M255" s="5">
+      <c r="M255" s="8">
         <v>851</v>
       </c>
     </row>
@@ -11148,7 +11162,7 @@
       <c r="L256" s="4">
         <v>13</v>
       </c>
-      <c r="M256" s="5">
+      <c r="M256" s="8">
         <v>813</v>
       </c>
     </row>
@@ -11187,7 +11201,7 @@
       <c r="L257" s="4">
         <v>8</v>
       </c>
-      <c r="M257" s="5">
+      <c r="M257" s="8">
         <v>807</v>
       </c>
     </row>
@@ -11228,7 +11242,7 @@
       <c r="L258" s="4">
         <v>8</v>
       </c>
-      <c r="M258" s="5">
+      <c r="M258" s="8">
         <v>651</v>
       </c>
     </row>
@@ -11267,7 +11281,7 @@
       <c r="L259" s="4">
         <v>8</v>
       </c>
-      <c r="M259" s="5">
+      <c r="M259" s="8">
         <v>628</v>
       </c>
     </row>
@@ -11308,7 +11322,7 @@
       <c r="L260" s="4">
         <v>4</v>
       </c>
-      <c r="M260" s="5">
+      <c r="M260" s="8">
         <v>388</v>
       </c>
     </row>
@@ -11347,7 +11361,7 @@
       <c r="L261" s="4">
         <v>2</v>
       </c>
-      <c r="M261" s="5">
+      <c r="M261" s="8">
         <v>499</v>
       </c>
     </row>
@@ -11388,7 +11402,7 @@
       <c r="L262" s="4">
         <v>5</v>
       </c>
-      <c r="M262" s="5">
+      <c r="M262" s="8">
         <v>543</v>
       </c>
     </row>
@@ -11427,7 +11441,7 @@
       <c r="L263" s="4">
         <v>5</v>
       </c>
-      <c r="M263" s="5">
+      <c r="M263" s="8">
         <v>655</v>
       </c>
     </row>
@@ -11435,46 +11449,46 @@
       <c r="A264" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B264" s="6"/>
-      <c r="C264" s="5">
+      <c r="B264" s="7"/>
+      <c r="C264" s="8">
         <v>697</v>
       </c>
-      <c r="D264" s="5">
+      <c r="D264" s="8">
         <v>835</v>
       </c>
-      <c r="E264" s="5">
-        <v>5.6260000000000003</v>
-      </c>
-      <c r="F264" s="5">
-        <v>1.978</v>
-      </c>
-      <c r="G264" s="5">
-        <v>2.9929999999999999</v>
-      </c>
-      <c r="H264" s="5">
-        <v>4.2619999999999996</v>
-      </c>
-      <c r="I264" s="5">
-        <v>2.133</v>
-      </c>
-      <c r="J264" s="5">
+      <c r="E264" s="6">
+        <v>5626</v>
+      </c>
+      <c r="F264" s="6">
+        <v>1978</v>
+      </c>
+      <c r="G264" s="6">
+        <v>2993</v>
+      </c>
+      <c r="H264" s="6">
+        <v>4262</v>
+      </c>
+      <c r="I264" s="6">
+        <v>2133</v>
+      </c>
+      <c r="J264" s="8">
         <v>148</v>
       </c>
-      <c r="K264" s="5">
+      <c r="K264" s="8">
         <v>18</v>
       </c>
-      <c r="L264" s="5">
+      <c r="L264" s="8">
         <v>198</v>
       </c>
-      <c r="M264" s="5">
-        <v>18.888000000000002</v>
+      <c r="M264" s="6">
+        <v>18888</v>
       </c>
     </row>
     <row r="265" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A265" s="8" t="s">
+      <c r="A265" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B265" s="8"/>
+      <c r="B265" s="9"/>
       <c r="C265" s="2" t="s">
         <v>2</v>
       </c>
@@ -11546,8 +11560,8 @@
       <c r="L266" s="4">
         <v>14</v>
       </c>
-      <c r="M266" s="5">
-        <v>1.1519999999999999</v>
+      <c r="M266" s="6">
+        <v>1152</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
@@ -11585,8 +11599,8 @@
       <c r="L267" s="4">
         <v>7</v>
       </c>
-      <c r="M267" s="5">
-        <v>1.032</v>
+      <c r="M267" s="6">
+        <v>1032</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
@@ -11626,7 +11640,7 @@
       <c r="L268" s="4">
         <v>5</v>
       </c>
-      <c r="M268" s="5">
+      <c r="M268" s="8">
         <v>821</v>
       </c>
     </row>
@@ -11665,7 +11679,7 @@
       <c r="L269" s="4">
         <v>4</v>
       </c>
-      <c r="M269" s="5">
+      <c r="M269" s="8">
         <v>693</v>
       </c>
     </row>
@@ -11706,7 +11720,7 @@
       <c r="L270" s="4">
         <v>8</v>
       </c>
-      <c r="M270" s="5">
+      <c r="M270" s="8">
         <v>682</v>
       </c>
     </row>
@@ -11745,7 +11759,7 @@
       <c r="L271" s="4">
         <v>6</v>
       </c>
-      <c r="M271" s="5">
+      <c r="M271" s="8">
         <v>647</v>
       </c>
     </row>
@@ -11786,7 +11800,7 @@
       <c r="L272" s="4">
         <v>7</v>
       </c>
-      <c r="M272" s="5">
+      <c r="M272" s="8">
         <v>699</v>
       </c>
     </row>
@@ -11825,7 +11839,7 @@
       <c r="L273" s="4">
         <v>10</v>
       </c>
-      <c r="M273" s="5">
+      <c r="M273" s="8">
         <v>581</v>
       </c>
     </row>
@@ -11866,7 +11880,7 @@
       <c r="L274" s="4">
         <v>8</v>
       </c>
-      <c r="M274" s="5">
+      <c r="M274" s="8">
         <v>767</v>
       </c>
     </row>
@@ -11905,7 +11919,7 @@
       <c r="L275" s="4">
         <v>12</v>
       </c>
-      <c r="M275" s="5">
+      <c r="M275" s="8">
         <v>665</v>
       </c>
     </row>
@@ -11946,7 +11960,7 @@
       <c r="L276" s="4">
         <v>4</v>
       </c>
-      <c r="M276" s="5">
+      <c r="M276" s="8">
         <v>756</v>
       </c>
     </row>
@@ -11985,7 +11999,7 @@
       <c r="L277" s="4">
         <v>7</v>
       </c>
-      <c r="M277" s="5">
+      <c r="M277" s="8">
         <v>760</v>
       </c>
     </row>
@@ -12026,7 +12040,7 @@
       <c r="L278" s="4">
         <v>12</v>
       </c>
-      <c r="M278" s="5">
+      <c r="M278" s="8">
         <v>845</v>
       </c>
     </row>
@@ -12065,7 +12079,7 @@
       <c r="L279" s="4">
         <v>17</v>
       </c>
-      <c r="M279" s="5">
+      <c r="M279" s="8">
         <v>847</v>
       </c>
     </row>
@@ -12106,7 +12120,7 @@
       <c r="L280" s="4">
         <v>18</v>
       </c>
-      <c r="M280" s="5">
+      <c r="M280" s="8">
         <v>967</v>
       </c>
     </row>
@@ -12145,7 +12159,7 @@
       <c r="L281" s="4">
         <v>20</v>
       </c>
-      <c r="M281" s="5">
+      <c r="M281" s="8">
         <v>918</v>
       </c>
     </row>
@@ -12186,7 +12200,7 @@
       <c r="L282" s="4">
         <v>12</v>
       </c>
-      <c r="M282" s="5">
+      <c r="M282" s="8">
         <v>902</v>
       </c>
     </row>
@@ -12225,7 +12239,7 @@
       <c r="L283" s="4">
         <v>13</v>
       </c>
-      <c r="M283" s="5">
+      <c r="M283" s="8">
         <v>861</v>
       </c>
     </row>
@@ -12266,7 +12280,7 @@
       <c r="L284" s="4">
         <v>9</v>
       </c>
-      <c r="M284" s="5">
+      <c r="M284" s="8">
         <v>827</v>
       </c>
     </row>
@@ -12305,7 +12319,7 @@
       <c r="L285" s="4">
         <v>14</v>
       </c>
-      <c r="M285" s="5">
+      <c r="M285" s="8">
         <v>797</v>
       </c>
     </row>
@@ -12346,7 +12360,7 @@
       <c r="L286" s="4">
         <v>9</v>
       </c>
-      <c r="M286" s="5">
+      <c r="M286" s="8">
         <v>567</v>
       </c>
     </row>
@@ -12385,7 +12399,7 @@
       <c r="L287" s="4">
         <v>7</v>
       </c>
-      <c r="M287" s="5">
+      <c r="M287" s="8">
         <v>570</v>
       </c>
     </row>
@@ -12426,7 +12440,7 @@
       <c r="L288" s="4">
         <v>8</v>
       </c>
-      <c r="M288" s="5">
+      <c r="M288" s="8">
         <v>550</v>
       </c>
     </row>
@@ -12465,7 +12479,7 @@
       <c r="L289" s="4">
         <v>9</v>
       </c>
-      <c r="M289" s="5">
+      <c r="M289" s="8">
         <v>806</v>
       </c>
     </row>
@@ -12473,46 +12487,46 @@
       <c r="A290" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B290" s="6"/>
-      <c r="C290" s="5">
+      <c r="B290" s="7"/>
+      <c r="C290" s="8">
         <v>801</v>
       </c>
-      <c r="D290" s="5">
+      <c r="D290" s="8">
         <v>783</v>
       </c>
-      <c r="E290" s="5">
-        <v>5.7679999999999998</v>
-      </c>
-      <c r="F290" s="5">
-        <v>1.6279999999999999</v>
-      </c>
-      <c r="G290" s="5">
-        <v>2.5979999999999999</v>
-      </c>
-      <c r="H290" s="5">
-        <v>4.4109999999999996</v>
-      </c>
-      <c r="I290" s="5">
-        <v>2.2949999999999999</v>
-      </c>
-      <c r="J290" s="5">
+      <c r="E290" s="6">
+        <v>5768</v>
+      </c>
+      <c r="F290" s="6">
+        <v>1628</v>
+      </c>
+      <c r="G290" s="6">
+        <v>2598</v>
+      </c>
+      <c r="H290" s="6">
+        <v>4411</v>
+      </c>
+      <c r="I290" s="6">
+        <v>2295</v>
+      </c>
+      <c r="J290" s="8">
         <v>178</v>
       </c>
-      <c r="K290" s="5">
+      <c r="K290" s="8">
         <v>10</v>
       </c>
-      <c r="L290" s="5">
+      <c r="L290" s="8">
         <v>240</v>
       </c>
-      <c r="M290" s="5">
-        <v>18.712</v>
+      <c r="M290" s="6">
+        <v>18712</v>
       </c>
     </row>
     <row r="291" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A291" s="8" t="s">
+      <c r="A291" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B291" s="8"/>
+      <c r="B291" s="9"/>
       <c r="C291" s="2" t="s">
         <v>2</v>
       </c>
@@ -12584,8 +12598,8 @@
       <c r="L292" s="4">
         <v>11</v>
       </c>
-      <c r="M292" s="5">
-        <v>1.494</v>
+      <c r="M292" s="6">
+        <v>1494</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
@@ -12623,8 +12637,8 @@
       <c r="L293" s="4">
         <v>5</v>
       </c>
-      <c r="M293" s="5">
-        <v>1.446</v>
+      <c r="M293" s="6">
+        <v>1446</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
@@ -12664,8 +12678,8 @@
       <c r="L294" s="4">
         <v>2</v>
       </c>
-      <c r="M294" s="5">
-        <v>1.05</v>
+      <c r="M294" s="6">
+        <v>1050</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.25">
@@ -12703,8 +12717,8 @@
       <c r="L295" s="4">
         <v>4</v>
       </c>
-      <c r="M295" s="5">
-        <v>1.069</v>
+      <c r="M295" s="6">
+        <v>1069</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.25">
@@ -12744,8 +12758,8 @@
       <c r="L296" s="4">
         <v>4</v>
       </c>
-      <c r="M296" s="5">
-        <v>1.07</v>
+      <c r="M296" s="6">
+        <v>1070</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.25">
@@ -12783,8 +12797,8 @@
       <c r="L297" s="4">
         <v>5</v>
       </c>
-      <c r="M297" s="5">
-        <v>1.0920000000000001</v>
+      <c r="M297" s="6">
+        <v>1092</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.25">
@@ -12824,8 +12838,8 @@
       <c r="L298" s="4">
         <v>6</v>
       </c>
-      <c r="M298" s="5">
-        <v>1.0629999999999999</v>
+      <c r="M298" s="6">
+        <v>1063</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.25">
@@ -12863,8 +12877,8 @@
       <c r="L299" s="4">
         <v>4</v>
       </c>
-      <c r="M299" s="5">
-        <v>1.038</v>
+      <c r="M299" s="6">
+        <v>1038</v>
       </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.25">
@@ -12904,8 +12918,8 @@
       <c r="L300" s="4">
         <v>5</v>
       </c>
-      <c r="M300" s="5">
-        <v>1.1950000000000001</v>
+      <c r="M300" s="6">
+        <v>1195</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.25">
@@ -12943,8 +12957,8 @@
       <c r="L301" s="4">
         <v>8</v>
       </c>
-      <c r="M301" s="5">
-        <v>1.165</v>
+      <c r="M301" s="6">
+        <v>1165</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.25">
@@ -12984,8 +12998,8 @@
       <c r="L302" s="4">
         <v>4</v>
       </c>
-      <c r="M302" s="5">
-        <v>1.0880000000000001</v>
+      <c r="M302" s="6">
+        <v>1088</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.25">
@@ -13023,8 +13037,8 @@
       <c r="L303" s="4">
         <v>6</v>
       </c>
-      <c r="M303" s="5">
-        <v>1.0129999999999999</v>
+      <c r="M303" s="6">
+        <v>1013</v>
       </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.25">
@@ -13064,7 +13078,7 @@
       <c r="L304" s="4">
         <v>9</v>
       </c>
-      <c r="M304" s="5">
+      <c r="M304" s="8">
         <v>982</v>
       </c>
     </row>
@@ -13103,7 +13117,7 @@
       <c r="L305" s="4">
         <v>5</v>
       </c>
-      <c r="M305" s="5">
+      <c r="M305" s="8">
         <v>938</v>
       </c>
     </row>
@@ -13144,7 +13158,7 @@
       <c r="L306" s="4">
         <v>3</v>
       </c>
-      <c r="M306" s="5">
+      <c r="M306" s="8">
         <v>852</v>
       </c>
     </row>
@@ -13183,7 +13197,7 @@
       <c r="L307" s="4">
         <v>4</v>
       </c>
-      <c r="M307" s="5">
+      <c r="M307" s="8">
         <v>884</v>
       </c>
     </row>
@@ -13224,7 +13238,7 @@
       <c r="L308" s="4">
         <v>4</v>
       </c>
-      <c r="M308" s="5">
+      <c r="M308" s="8">
         <v>864</v>
       </c>
     </row>
@@ -13263,7 +13277,7 @@
       <c r="L309" s="4">
         <v>7</v>
       </c>
-      <c r="M309" s="5">
+      <c r="M309" s="8">
         <v>952</v>
       </c>
     </row>
@@ -13304,7 +13318,7 @@
       <c r="L310" s="4">
         <v>2</v>
       </c>
-      <c r="M310" s="5">
+      <c r="M310" s="8">
         <v>691</v>
       </c>
     </row>
@@ -13343,7 +13357,7 @@
       <c r="L311" s="4">
         <v>5</v>
       </c>
-      <c r="M311" s="5">
+      <c r="M311" s="8">
         <v>764</v>
       </c>
     </row>
@@ -13384,7 +13398,7 @@
       <c r="L312" s="4">
         <v>3</v>
       </c>
-      <c r="M312" s="5">
+      <c r="M312" s="8">
         <v>518</v>
       </c>
     </row>
@@ -13423,7 +13437,7 @@
       <c r="L313" s="4">
         <v>3</v>
       </c>
-      <c r="M313" s="5">
+      <c r="M313" s="8">
         <v>564</v>
       </c>
     </row>
@@ -13464,7 +13478,7 @@
       <c r="L314" s="4">
         <v>4</v>
       </c>
-      <c r="M314" s="5">
+      <c r="M314" s="8">
         <v>516</v>
       </c>
     </row>
@@ -13503,7 +13517,7 @@
       <c r="L315" s="4">
         <v>7</v>
       </c>
-      <c r="M315" s="5">
+      <c r="M315" s="8">
         <v>797</v>
       </c>
     </row>
@@ -13511,46 +13525,46 @@
       <c r="A316" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B316" s="6"/>
-      <c r="C316" s="5">
+      <c r="B316" s="7"/>
+      <c r="C316" s="8">
         <v>530</v>
       </c>
-      <c r="D316" s="5">
+      <c r="D316" s="8">
         <v>514</v>
       </c>
-      <c r="E316" s="5">
-        <v>6.4180000000000001</v>
-      </c>
-      <c r="F316" s="5">
-        <v>2.0390000000000001</v>
-      </c>
-      <c r="G316" s="5">
-        <v>3.71</v>
-      </c>
-      <c r="H316" s="5">
-        <v>6.0309999999999997</v>
-      </c>
-      <c r="I316" s="5">
-        <v>3.431</v>
-      </c>
-      <c r="J316" s="5">
+      <c r="E316" s="6">
+        <v>6418</v>
+      </c>
+      <c r="F316" s="6">
+        <v>2039</v>
+      </c>
+      <c r="G316" s="6">
+        <v>3710</v>
+      </c>
+      <c r="H316" s="6">
+        <v>6031</v>
+      </c>
+      <c r="I316" s="6">
+        <v>3431</v>
+      </c>
+      <c r="J316" s="8">
         <v>294</v>
       </c>
-      <c r="K316" s="5">
+      <c r="K316" s="8">
         <v>18</v>
       </c>
-      <c r="L316" s="5">
+      <c r="L316" s="8">
         <v>120</v>
       </c>
-      <c r="M316" s="5">
-        <v>23.105</v>
+      <c r="M316" s="6">
+        <v>23105</v>
       </c>
     </row>
     <row r="317" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A317" s="8" t="s">
+      <c r="A317" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B317" s="8"/>
+      <c r="B317" s="9"/>
       <c r="C317" s="2" t="s">
         <v>2</v>
       </c>
@@ -13607,8 +13621,8 @@
       <c r="G318" s="4">
         <v>405</v>
       </c>
-      <c r="H318" s="4">
-        <v>1.4139999999999999</v>
+      <c r="H318" s="5">
+        <v>1414</v>
       </c>
       <c r="I318" s="4">
         <v>258</v>
@@ -13622,8 +13636,8 @@
       <c r="L318" s="4">
         <v>15</v>
       </c>
-      <c r="M318" s="5">
-        <v>2.1480000000000001</v>
+      <c r="M318" s="6">
+        <v>2148</v>
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.25">
@@ -13646,8 +13660,8 @@
       <c r="G319" s="4">
         <v>283</v>
       </c>
-      <c r="H319" s="4">
-        <v>1.292</v>
+      <c r="H319" s="5">
+        <v>1292</v>
       </c>
       <c r="I319" s="4">
         <v>367</v>
@@ -13661,8 +13675,8 @@
       <c r="L319" s="4">
         <v>13</v>
       </c>
-      <c r="M319" s="5">
-        <v>2.0550000000000002</v>
+      <c r="M319" s="6">
+        <v>2055</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.25">
@@ -13702,8 +13716,8 @@
       <c r="L320" s="4">
         <v>8</v>
       </c>
-      <c r="M320" s="5">
-        <v>1.65</v>
+      <c r="M320" s="6">
+        <v>1650</v>
       </c>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.25">
@@ -13741,8 +13755,8 @@
       <c r="L321" s="4">
         <v>15</v>
       </c>
-      <c r="M321" s="5">
-        <v>1.62</v>
+      <c r="M321" s="6">
+        <v>1620</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.25">
@@ -13782,8 +13796,8 @@
       <c r="L322" s="4">
         <v>16</v>
       </c>
-      <c r="M322" s="5">
-        <v>1.5089999999999999</v>
+      <c r="M322" s="6">
+        <v>1509</v>
       </c>
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.25">
@@ -13821,8 +13835,8 @@
       <c r="L323" s="4">
         <v>12</v>
       </c>
-      <c r="M323" s="5">
-        <v>1.54</v>
+      <c r="M323" s="6">
+        <v>1540</v>
       </c>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.25">
@@ -13862,8 +13876,8 @@
       <c r="L324" s="4">
         <v>11</v>
       </c>
-      <c r="M324" s="5">
-        <v>1.524</v>
+      <c r="M324" s="6">
+        <v>1524</v>
       </c>
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.25">
@@ -13901,8 +13915,8 @@
       <c r="L325" s="4">
         <v>12</v>
       </c>
-      <c r="M325" s="5">
-        <v>1.546</v>
+      <c r="M325" s="6">
+        <v>1546</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.25">
@@ -13942,8 +13956,8 @@
       <c r="L326" s="4">
         <v>21</v>
       </c>
-      <c r="M326" s="5">
-        <v>1.6759999999999999</v>
+      <c r="M326" s="6">
+        <v>1676</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.25">
@@ -13981,8 +13995,8 @@
       <c r="L327" s="4">
         <v>12</v>
       </c>
-      <c r="M327" s="5">
-        <v>1.643</v>
+      <c r="M327" s="6">
+        <v>1643</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.25">
@@ -14022,8 +14036,8 @@
       <c r="L328" s="4">
         <v>14</v>
       </c>
-      <c r="M328" s="5">
-        <v>1.556</v>
+      <c r="M328" s="6">
+        <v>1556</v>
       </c>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.25">
@@ -14061,8 +14075,8 @@
       <c r="L329" s="4">
         <v>20</v>
       </c>
-      <c r="M329" s="5">
-        <v>1.5649999999999999</v>
+      <c r="M329" s="6">
+        <v>1565</v>
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.25">
@@ -14102,8 +14116,8 @@
       <c r="L330" s="4">
         <v>22</v>
       </c>
-      <c r="M330" s="5">
-        <v>1.425</v>
+      <c r="M330" s="6">
+        <v>1425</v>
       </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.25">
@@ -14141,8 +14155,8 @@
       <c r="L331" s="4">
         <v>27</v>
       </c>
-      <c r="M331" s="5">
-        <v>1.52</v>
+      <c r="M331" s="6">
+        <v>1520</v>
       </c>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.25">
@@ -14182,8 +14196,8 @@
       <c r="L332" s="4">
         <v>25</v>
       </c>
-      <c r="M332" s="5">
-        <v>1.3109999999999999</v>
+      <c r="M332" s="6">
+        <v>1311</v>
       </c>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.25">
@@ -14221,8 +14235,8 @@
       <c r="L333" s="4">
         <v>23</v>
       </c>
-      <c r="M333" s="5">
-        <v>1.2929999999999999</v>
+      <c r="M333" s="6">
+        <v>1293</v>
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.25">
@@ -14262,8 +14276,8 @@
       <c r="L334" s="4">
         <v>24</v>
       </c>
-      <c r="M334" s="5">
-        <v>1.147</v>
+      <c r="M334" s="6">
+        <v>1147</v>
       </c>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.25">
@@ -14301,8 +14315,8 @@
       <c r="L335" s="4">
         <v>25</v>
       </c>
-      <c r="M335" s="5">
-        <v>1.2509999999999999</v>
+      <c r="M335" s="6">
+        <v>1251</v>
       </c>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.25">
@@ -14342,7 +14356,7 @@
       <c r="L336" s="4">
         <v>17</v>
       </c>
-      <c r="M336" s="5">
+      <c r="M336" s="8">
         <v>962</v>
       </c>
     </row>
@@ -14381,7 +14395,7 @@
       <c r="L337" s="4">
         <v>14</v>
       </c>
-      <c r="M337" s="5">
+      <c r="M337" s="8">
         <v>969</v>
       </c>
     </row>
@@ -14422,7 +14436,7 @@
       <c r="L338" s="4">
         <v>25</v>
       </c>
-      <c r="M338" s="5">
+      <c r="M338" s="8">
         <v>644</v>
       </c>
     </row>
@@ -14461,7 +14475,7 @@
       <c r="L339" s="4">
         <v>12</v>
       </c>
-      <c r="M339" s="5">
+      <c r="M339" s="8">
         <v>715</v>
       </c>
     </row>
@@ -14502,7 +14516,7 @@
       <c r="L340" s="4">
         <v>17</v>
       </c>
-      <c r="M340" s="5">
+      <c r="M340" s="8">
         <v>739</v>
       </c>
     </row>
@@ -14541,7 +14555,7 @@
       <c r="L341" s="4">
         <v>29</v>
       </c>
-      <c r="M341" s="5">
+      <c r="M341" s="8">
         <v>969</v>
       </c>
     </row>
@@ -14549,46 +14563,46 @@
       <c r="A342" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B342" s="6"/>
-      <c r="C342" s="5">
+      <c r="B342" s="7"/>
+      <c r="C342" s="8">
         <v>513</v>
       </c>
-      <c r="D342" s="5">
+      <c r="D342" s="8">
         <v>754</v>
       </c>
-      <c r="E342" s="5">
-        <v>5.5780000000000003</v>
-      </c>
-      <c r="F342" s="5">
-        <v>1.9490000000000001</v>
-      </c>
-      <c r="G342" s="5">
-        <v>4.13</v>
-      </c>
-      <c r="H342" s="5">
-        <v>11.769</v>
-      </c>
-      <c r="I342" s="5">
-        <v>6.8620000000000001</v>
-      </c>
-      <c r="J342" s="5">
+      <c r="E342" s="6">
+        <v>5578</v>
+      </c>
+      <c r="F342" s="6">
+        <v>1949</v>
+      </c>
+      <c r="G342" s="6">
+        <v>4130</v>
+      </c>
+      <c r="H342" s="6">
+        <v>11769</v>
+      </c>
+      <c r="I342" s="6">
+        <v>6862</v>
+      </c>
+      <c r="J342" s="8">
         <v>846</v>
       </c>
-      <c r="K342" s="5">
+      <c r="K342" s="8">
         <v>147</v>
       </c>
-      <c r="L342" s="5">
+      <c r="L342" s="8">
         <v>429</v>
       </c>
-      <c r="M342" s="5">
-        <v>32.976999999999997</v>
+      <c r="M342" s="6">
+        <v>32977</v>
       </c>
     </row>
     <row r="343" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A343" s="8" t="s">
+      <c r="A343" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B343" s="8"/>
+      <c r="B343" s="9"/>
       <c r="C343" s="2" t="s">
         <v>2</v>
       </c>
@@ -14642,11 +14656,11 @@
       <c r="F344" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G344" s="4">
-        <v>1.0640000000000001</v>
-      </c>
-      <c r="H344" s="4">
-        <v>5.0750000000000002</v>
+      <c r="G344" s="5">
+        <v>1064</v>
+      </c>
+      <c r="H344" s="5">
+        <v>5075</v>
       </c>
       <c r="I344" s="4">
         <v>962</v>
@@ -14660,8 +14674,8 @@
       <c r="L344" s="4">
         <v>57</v>
       </c>
-      <c r="M344" s="5">
-        <v>7.1859999999999999</v>
+      <c r="M344" s="6">
+        <v>7186</v>
       </c>
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.25">
@@ -14684,11 +14698,11 @@
       <c r="G345" s="4">
         <v>774</v>
       </c>
-      <c r="H345" s="4">
-        <v>4.5579999999999998</v>
-      </c>
-      <c r="I345" s="4">
-        <v>1.623</v>
+      <c r="H345" s="5">
+        <v>4558</v>
+      </c>
+      <c r="I345" s="5">
+        <v>1623</v>
       </c>
       <c r="J345" s="4">
         <v>25</v>
@@ -14699,8 +14713,8 @@
       <c r="L345" s="4">
         <v>25</v>
       </c>
-      <c r="M345" s="5">
-        <v>7.0330000000000004</v>
+      <c r="M345" s="6">
+        <v>7033</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.25">
@@ -14725,11 +14739,11 @@
       <c r="G346" s="4">
         <v>710</v>
       </c>
-      <c r="H346" s="4">
-        <v>2.1789999999999998</v>
-      </c>
-      <c r="I346" s="4">
-        <v>2.7570000000000001</v>
+      <c r="H346" s="5">
+        <v>2179</v>
+      </c>
+      <c r="I346" s="5">
+        <v>2757</v>
       </c>
       <c r="J346" s="4">
         <v>285</v>
@@ -14740,8 +14754,8 @@
       <c r="L346" s="4">
         <v>44</v>
       </c>
-      <c r="M346" s="5">
-        <v>6.008</v>
+      <c r="M346" s="6">
+        <v>6008</v>
       </c>
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.25">
@@ -14764,11 +14778,11 @@
       <c r="G347" s="4">
         <v>681</v>
       </c>
-      <c r="H347" s="4">
-        <v>1.403</v>
-      </c>
-      <c r="I347" s="4">
-        <v>3.4940000000000002</v>
+      <c r="H347" s="5">
+        <v>1403</v>
+      </c>
+      <c r="I347" s="5">
+        <v>3494</v>
       </c>
       <c r="J347" s="4">
         <v>419</v>
@@ -14779,8 +14793,8 @@
       <c r="L347" s="4">
         <v>27</v>
       </c>
-      <c r="M347" s="5">
-        <v>6.11</v>
+      <c r="M347" s="6">
+        <v>6110</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.25">
@@ -14805,11 +14819,11 @@
       <c r="G348" s="4">
         <v>343</v>
       </c>
-      <c r="H348" s="4">
-        <v>1.9530000000000001</v>
-      </c>
-      <c r="I348" s="4">
-        <v>2.681</v>
+      <c r="H348" s="5">
+        <v>1953</v>
+      </c>
+      <c r="I348" s="5">
+        <v>2681</v>
       </c>
       <c r="J348" s="4">
         <v>560</v>
@@ -14820,8 +14834,8 @@
       <c r="L348" s="4">
         <v>36</v>
       </c>
-      <c r="M348" s="5">
-        <v>5.9610000000000003</v>
+      <c r="M348" s="6">
+        <v>5961</v>
       </c>
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.25">
@@ -14844,11 +14858,11 @@
       <c r="G349" s="4">
         <v>372</v>
       </c>
-      <c r="H349" s="4">
-        <v>1.4730000000000001</v>
-      </c>
-      <c r="I349" s="4">
-        <v>3.0379999999999998</v>
+      <c r="H349" s="5">
+        <v>1473</v>
+      </c>
+      <c r="I349" s="5">
+        <v>3038</v>
       </c>
       <c r="J349" s="4">
         <v>576</v>
@@ -14859,8 +14873,8 @@
       <c r="L349" s="4">
         <v>56</v>
       </c>
-      <c r="M349" s="5">
-        <v>6.1130000000000004</v>
+      <c r="M349" s="6">
+        <v>6113</v>
       </c>
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.25">
@@ -14885,11 +14899,11 @@
       <c r="G350" s="4">
         <v>290</v>
       </c>
-      <c r="H350" s="4">
-        <v>2.0270000000000001</v>
-      </c>
-      <c r="I350" s="4">
-        <v>2.2839999999999998</v>
+      <c r="H350" s="5">
+        <v>2027</v>
+      </c>
+      <c r="I350" s="5">
+        <v>2284</v>
       </c>
       <c r="J350" s="4">
         <v>595</v>
@@ -14900,8 +14914,8 @@
       <c r="L350" s="4">
         <v>47</v>
       </c>
-      <c r="M350" s="5">
-        <v>5.9080000000000004</v>
+      <c r="M350" s="6">
+        <v>5908</v>
       </c>
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.25">
@@ -14924,11 +14938,11 @@
       <c r="G351" s="4">
         <v>462</v>
       </c>
-      <c r="H351" s="4">
-        <v>1.7290000000000001</v>
-      </c>
-      <c r="I351" s="4">
-        <v>2.3359999999999999</v>
+      <c r="H351" s="5">
+        <v>1729</v>
+      </c>
+      <c r="I351" s="5">
+        <v>2336</v>
       </c>
       <c r="J351" s="4">
         <v>512</v>
@@ -14939,8 +14953,8 @@
       <c r="L351" s="4">
         <v>43</v>
       </c>
-      <c r="M351" s="5">
-        <v>6.2080000000000002</v>
+      <c r="M351" s="6">
+        <v>6208</v>
       </c>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.25">
@@ -14965,11 +14979,11 @@
       <c r="G352" s="4">
         <v>663</v>
       </c>
-      <c r="H352" s="4">
-        <v>2.2890000000000001</v>
-      </c>
-      <c r="I352" s="4">
-        <v>1.8069999999999999</v>
+      <c r="H352" s="5">
+        <v>2289</v>
+      </c>
+      <c r="I352" s="5">
+        <v>1807</v>
       </c>
       <c r="J352" s="4">
         <v>539</v>
@@ -14980,8 +14994,8 @@
       <c r="L352" s="4">
         <v>44</v>
       </c>
-      <c r="M352" s="5">
-        <v>6.2859999999999996</v>
+      <c r="M352" s="6">
+        <v>6286</v>
       </c>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.25">
@@ -15004,11 +15018,11 @@
       <c r="G353" s="4">
         <v>713</v>
       </c>
-      <c r="H353" s="4">
-        <v>1.923</v>
-      </c>
-      <c r="I353" s="4">
-        <v>1.7589999999999999</v>
+      <c r="H353" s="5">
+        <v>1923</v>
+      </c>
+      <c r="I353" s="5">
+        <v>1759</v>
       </c>
       <c r="J353" s="4">
         <v>433</v>
@@ -15019,8 +15033,8 @@
       <c r="L353" s="4">
         <v>48</v>
       </c>
-      <c r="M353" s="5">
-        <v>6.3390000000000004</v>
+      <c r="M353" s="6">
+        <v>6339</v>
       </c>
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.25">
@@ -15045,11 +15059,11 @@
       <c r="G354" s="4">
         <v>646</v>
       </c>
-      <c r="H354" s="4">
-        <v>1.69</v>
-      </c>
-      <c r="I354" s="4">
-        <v>1.395</v>
+      <c r="H354" s="5">
+        <v>1690</v>
+      </c>
+      <c r="I354" s="5">
+        <v>1395</v>
       </c>
       <c r="J354" s="4">
         <v>388</v>
@@ -15060,8 +15074,8 @@
       <c r="L354" s="4">
         <v>48</v>
       </c>
-      <c r="M354" s="5">
-        <v>5.2889999999999997</v>
+      <c r="M354" s="6">
+        <v>5289</v>
       </c>
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.25">
@@ -15075,8 +15089,8 @@
       <c r="D355" s="4">
         <v>16</v>
       </c>
-      <c r="E355" s="4">
-        <v>1.079</v>
+      <c r="E355" s="5">
+        <v>1079</v>
       </c>
       <c r="F355" s="4">
         <v>486</v>
@@ -15084,11 +15098,11 @@
       <c r="G355" s="4">
         <v>722</v>
       </c>
-      <c r="H355" s="4">
-        <v>1.5309999999999999</v>
-      </c>
-      <c r="I355" s="4">
-        <v>1.1539999999999999</v>
+      <c r="H355" s="5">
+        <v>1531</v>
+      </c>
+      <c r="I355" s="5">
+        <v>1154</v>
       </c>
       <c r="J355" s="4">
         <v>237</v>
@@ -15099,8 +15113,8 @@
       <c r="L355" s="4">
         <v>40</v>
       </c>
-      <c r="M355" s="5">
-        <v>5.3840000000000003</v>
+      <c r="M355" s="6">
+        <v>5384</v>
       </c>
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.25">
@@ -15125,11 +15139,11 @@
       <c r="G356" s="4">
         <v>673</v>
       </c>
-      <c r="H356" s="4">
-        <v>1.369</v>
-      </c>
-      <c r="I356" s="4">
-        <v>1.0269999999999999</v>
+      <c r="H356" s="5">
+        <v>1369</v>
+      </c>
+      <c r="I356" s="5">
+        <v>1027</v>
       </c>
       <c r="J356" s="4">
         <v>231</v>
@@ -15140,8 +15154,8 @@
       <c r="L356" s="4">
         <v>59</v>
       </c>
-      <c r="M356" s="5">
-        <v>4.5279999999999996</v>
+      <c r="M356" s="6">
+        <v>4528</v>
       </c>
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.25">
@@ -15155,8 +15169,8 @@
       <c r="D357" s="4">
         <v>37</v>
       </c>
-      <c r="E357" s="4">
-        <v>1.234</v>
+      <c r="E357" s="5">
+        <v>1234</v>
       </c>
       <c r="F357" s="4">
         <v>542</v>
@@ -15164,8 +15178,8 @@
       <c r="G357" s="4">
         <v>645</v>
       </c>
-      <c r="H357" s="4">
-        <v>1.129</v>
+      <c r="H357" s="5">
+        <v>1129</v>
       </c>
       <c r="I357" s="4">
         <v>613</v>
@@ -15179,8 +15193,8 @@
       <c r="L357" s="4">
         <v>67</v>
       </c>
-      <c r="M357" s="5">
-        <v>4.4290000000000003</v>
+      <c r="M357" s="6">
+        <v>4429</v>
       </c>
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.25">
@@ -15205,8 +15219,8 @@
       <c r="G358" s="4">
         <v>628</v>
       </c>
-      <c r="H358" s="4">
-        <v>1.028</v>
+      <c r="H358" s="5">
+        <v>1028</v>
       </c>
       <c r="I358" s="4">
         <v>637</v>
@@ -15220,8 +15234,8 @@
       <c r="L358" s="4">
         <v>67</v>
       </c>
-      <c r="M358" s="5">
-        <v>3.726</v>
+      <c r="M358" s="6">
+        <v>3726</v>
       </c>
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.25">
@@ -15235,8 +15249,8 @@
       <c r="D359" s="4">
         <v>76</v>
       </c>
-      <c r="E359" s="4">
-        <v>1.474</v>
+      <c r="E359" s="5">
+        <v>1474</v>
       </c>
       <c r="F359" s="4">
         <v>373</v>
@@ -15259,8 +15273,8 @@
       <c r="L359" s="4">
         <v>55</v>
       </c>
-      <c r="M359" s="5">
-        <v>3.6560000000000001</v>
+      <c r="M359" s="6">
+        <v>3656</v>
       </c>
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.25">
@@ -15300,8 +15314,8 @@
       <c r="L360" s="4">
         <v>68</v>
       </c>
-      <c r="M360" s="5">
-        <v>3.109</v>
+      <c r="M360" s="6">
+        <v>3109</v>
       </c>
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.25">
@@ -15315,8 +15329,8 @@
       <c r="D361" s="4">
         <v>130</v>
       </c>
-      <c r="E361" s="4">
-        <v>1.593</v>
+      <c r="E361" s="5">
+        <v>1593</v>
       </c>
       <c r="F361" s="4">
         <v>201</v>
@@ -15339,8 +15353,8 @@
       <c r="L361" s="4">
         <v>45</v>
       </c>
-      <c r="M361" s="5">
-        <v>3.1429999999999998</v>
+      <c r="M361" s="6">
+        <v>3143</v>
       </c>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.25">
@@ -15380,8 +15394,8 @@
       <c r="L362" s="4">
         <v>44</v>
       </c>
-      <c r="M362" s="5">
-        <v>2.46</v>
+      <c r="M362" s="6">
+        <v>2460</v>
       </c>
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.25">
@@ -15395,8 +15409,8 @@
       <c r="D363" s="4">
         <v>178</v>
       </c>
-      <c r="E363" s="4">
-        <v>1.4750000000000001</v>
+      <c r="E363" s="5">
+        <v>1475</v>
       </c>
       <c r="F363" s="4">
         <v>77</v>
@@ -15419,8 +15433,8 @@
       <c r="L363" s="4">
         <v>46</v>
       </c>
-      <c r="M363" s="5">
-        <v>2.5830000000000002</v>
+      <c r="M363" s="6">
+        <v>2583</v>
       </c>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.25">
@@ -15460,8 +15474,8 @@
       <c r="L364" s="4">
         <v>37</v>
       </c>
-      <c r="M364" s="5">
-        <v>1.5469999999999999</v>
+      <c r="M364" s="6">
+        <v>1547</v>
       </c>
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.25">
@@ -15499,8 +15513,8 @@
       <c r="L365" s="4">
         <v>47</v>
       </c>
-      <c r="M365" s="5">
-        <v>1.69</v>
+      <c r="M365" s="6">
+        <v>1690</v>
       </c>
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.25">
@@ -15540,8 +15554,8 @@
       <c r="L366" s="4">
         <v>45</v>
       </c>
-      <c r="M366" s="5">
-        <v>1.556</v>
+      <c r="M366" s="6">
+        <v>1556</v>
       </c>
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.25">
@@ -15579,54 +15593,54 @@
       <c r="L367" s="4">
         <v>46</v>
       </c>
-      <c r="M367" s="5">
-        <v>2.028</v>
+      <c r="M367" s="6">
+        <v>2028</v>
       </c>
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B368" s="6"/>
-      <c r="C368" s="5">
-        <v>1.038</v>
-      </c>
-      <c r="D368" s="5">
-        <v>1.343</v>
-      </c>
-      <c r="E368" s="5">
-        <v>15.47</v>
-      </c>
-      <c r="F368" s="5">
-        <v>6.51</v>
-      </c>
-      <c r="G368" s="5">
-        <v>11.477</v>
-      </c>
-      <c r="H368" s="5">
-        <v>34.92</v>
-      </c>
-      <c r="I368" s="5">
-        <v>29.664999999999999</v>
-      </c>
-      <c r="J368" s="5">
-        <v>5.25</v>
-      </c>
-      <c r="K368" s="5">
-        <v>1.466</v>
-      </c>
-      <c r="L368" s="5">
-        <v>1.141</v>
-      </c>
-      <c r="M368" s="5">
-        <v>108.28</v>
+      <c r="B368" s="7"/>
+      <c r="C368" s="6">
+        <v>1038</v>
+      </c>
+      <c r="D368" s="6">
+        <v>1343</v>
+      </c>
+      <c r="E368" s="6">
+        <v>15470</v>
+      </c>
+      <c r="F368" s="6">
+        <v>6510</v>
+      </c>
+      <c r="G368" s="6">
+        <v>11477</v>
+      </c>
+      <c r="H368" s="6">
+        <v>34920</v>
+      </c>
+      <c r="I368" s="6">
+        <v>29665</v>
+      </c>
+      <c r="J368" s="6">
+        <v>5250</v>
+      </c>
+      <c r="K368" s="6">
+        <v>1466</v>
+      </c>
+      <c r="L368" s="6">
+        <v>1141</v>
+      </c>
+      <c r="M368" s="6">
+        <v>108280</v>
       </c>
     </row>
     <row r="369" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A369" s="8" t="s">
+      <c r="A369" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B369" s="8"/>
+      <c r="B369" s="9"/>
       <c r="C369" s="2" t="s">
         <v>2</v>
       </c>
@@ -15698,7 +15712,7 @@
       <c r="L370" s="4">
         <v>9</v>
       </c>
-      <c r="M370" s="5">
+      <c r="M370" s="8">
         <v>709</v>
       </c>
     </row>
@@ -15737,7 +15751,7 @@
       <c r="L371" s="4">
         <v>2</v>
       </c>
-      <c r="M371" s="5">
+      <c r="M371" s="8">
         <v>690</v>
       </c>
     </row>
@@ -15778,7 +15792,7 @@
       <c r="L372" s="4">
         <v>2</v>
       </c>
-      <c r="M372" s="5">
+      <c r="M372" s="8">
         <v>604</v>
       </c>
     </row>
@@ -15817,7 +15831,7 @@
       <c r="L373" s="4">
         <v>2</v>
       </c>
-      <c r="M373" s="5">
+      <c r="M373" s="8">
         <v>530</v>
       </c>
     </row>
@@ -15858,7 +15872,7 @@
       <c r="L374" s="4">
         <v>2</v>
       </c>
-      <c r="M374" s="5">
+      <c r="M374" s="8">
         <v>514</v>
       </c>
     </row>
@@ -15897,7 +15911,7 @@
       <c r="L375" s="4">
         <v>3</v>
       </c>
-      <c r="M375" s="5">
+      <c r="M375" s="8">
         <v>425</v>
       </c>
     </row>
@@ -15938,7 +15952,7 @@
       <c r="L376" s="4">
         <v>5</v>
       </c>
-      <c r="M376" s="5">
+      <c r="M376" s="8">
         <v>541</v>
       </c>
     </row>
@@ -15977,7 +15991,7 @@
       <c r="L377" s="4">
         <v>5</v>
       </c>
-      <c r="M377" s="5">
+      <c r="M377" s="8">
         <v>451</v>
       </c>
     </row>
@@ -16018,7 +16032,7 @@
       <c r="L378" s="4">
         <v>4</v>
       </c>
-      <c r="M378" s="5">
+      <c r="M378" s="8">
         <v>502</v>
       </c>
     </row>
@@ -16057,7 +16071,7 @@
       <c r="L379" s="4">
         <v>3</v>
       </c>
-      <c r="M379" s="5">
+      <c r="M379" s="8">
         <v>456</v>
       </c>
     </row>
@@ -16098,7 +16112,7 @@
       <c r="L380" s="4">
         <v>6</v>
       </c>
-      <c r="M380" s="5">
+      <c r="M380" s="8">
         <v>525</v>
       </c>
     </row>
@@ -16137,7 +16151,7 @@
       <c r="L381" s="4">
         <v>4</v>
       </c>
-      <c r="M381" s="5">
+      <c r="M381" s="8">
         <v>430</v>
       </c>
     </row>
@@ -16178,7 +16192,7 @@
       <c r="L382" s="4">
         <v>4</v>
       </c>
-      <c r="M382" s="5">
+      <c r="M382" s="8">
         <v>487</v>
       </c>
     </row>
@@ -16217,7 +16231,7 @@
       <c r="L383" s="4">
         <v>6</v>
       </c>
-      <c r="M383" s="5">
+      <c r="M383" s="8">
         <v>505</v>
       </c>
     </row>
@@ -16258,7 +16272,7 @@
       <c r="L384" s="4">
         <v>5</v>
       </c>
-      <c r="M384" s="5">
+      <c r="M384" s="8">
         <v>499</v>
       </c>
     </row>
@@ -16297,7 +16311,7 @@
       <c r="L385" s="4">
         <v>4</v>
       </c>
-      <c r="M385" s="5">
+      <c r="M385" s="8">
         <v>502</v>
       </c>
     </row>
@@ -16338,7 +16352,7 @@
       <c r="L386" s="4">
         <v>4</v>
       </c>
-      <c r="M386" s="5">
+      <c r="M386" s="8">
         <v>509</v>
       </c>
     </row>
@@ -16377,7 +16391,7 @@
       <c r="L387" s="4">
         <v>7</v>
       </c>
-      <c r="M387" s="5">
+      <c r="M387" s="8">
         <v>505</v>
       </c>
     </row>
@@ -16418,7 +16432,7 @@
       <c r="L388" s="4">
         <v>7</v>
       </c>
-      <c r="M388" s="5">
+      <c r="M388" s="8">
         <v>365</v>
       </c>
     </row>
@@ -16457,7 +16471,7 @@
       <c r="L389" s="4">
         <v>3</v>
       </c>
-      <c r="M389" s="5">
+      <c r="M389" s="8">
         <v>427</v>
       </c>
     </row>
@@ -16498,7 +16512,7 @@
       <c r="L390" s="4">
         <v>6</v>
       </c>
-      <c r="M390" s="5">
+      <c r="M390" s="8">
         <v>331</v>
       </c>
     </row>
@@ -16537,7 +16551,7 @@
       <c r="L391" s="4">
         <v>3</v>
       </c>
-      <c r="M391" s="5">
+      <c r="M391" s="8">
         <v>373</v>
       </c>
     </row>
@@ -16578,7 +16592,7 @@
       <c r="L392" s="4">
         <v>6</v>
       </c>
-      <c r="M392" s="5">
+      <c r="M392" s="8">
         <v>416</v>
       </c>
     </row>
@@ -16617,7 +16631,7 @@
       <c r="L393" s="4">
         <v>4</v>
       </c>
-      <c r="M393" s="5">
+      <c r="M393" s="8">
         <v>521</v>
       </c>
     </row>
@@ -16625,46 +16639,46 @@
       <c r="A394" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B394" s="6"/>
-      <c r="C394" s="5">
+      <c r="B394" s="7"/>
+      <c r="C394" s="8">
         <v>306</v>
       </c>
-      <c r="D394" s="5">
+      <c r="D394" s="8">
         <v>370</v>
       </c>
-      <c r="E394" s="5">
-        <v>3.6779999999999999</v>
-      </c>
-      <c r="F394" s="5">
+      <c r="E394" s="6">
+        <v>3678</v>
+      </c>
+      <c r="F394" s="8">
         <v>990</v>
       </c>
-      <c r="G394" s="5">
-        <v>1.571</v>
-      </c>
-      <c r="H394" s="5">
-        <v>3.2320000000000002</v>
-      </c>
-      <c r="I394" s="5">
-        <v>1.472</v>
-      </c>
-      <c r="J394" s="5">
+      <c r="G394" s="6">
+        <v>1571</v>
+      </c>
+      <c r="H394" s="6">
+        <v>3232</v>
+      </c>
+      <c r="I394" s="6">
+        <v>1472</v>
+      </c>
+      <c r="J394" s="8">
         <v>82</v>
       </c>
-      <c r="K394" s="5">
+      <c r="K394" s="8">
         <v>10</v>
       </c>
-      <c r="L394" s="5">
+      <c r="L394" s="8">
         <v>106</v>
       </c>
-      <c r="M394" s="5">
-        <v>11.817</v>
+      <c r="M394" s="6">
+        <v>11817</v>
       </c>
     </row>
     <row r="395" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A395" s="8" t="s">
+      <c r="A395" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B395" s="8"/>
+      <c r="B395" s="9"/>
       <c r="C395" s="2" t="s">
         <v>2</v>
       </c>
@@ -16736,7 +16750,7 @@
       <c r="L396" s="4">
         <v>2</v>
       </c>
-      <c r="M396" s="5">
+      <c r="M396" s="8">
         <v>356</v>
       </c>
     </row>
@@ -16775,7 +16789,7 @@
       <c r="L397" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M397" s="5">
+      <c r="M397" s="8">
         <v>340</v>
       </c>
     </row>
@@ -16816,7 +16830,7 @@
       <c r="L398" s="4">
         <v>2</v>
       </c>
-      <c r="M398" s="5">
+      <c r="M398" s="8">
         <v>262</v>
       </c>
     </row>
@@ -16855,7 +16869,7 @@
       <c r="L399" s="4">
         <v>1</v>
       </c>
-      <c r="M399" s="5">
+      <c r="M399" s="8">
         <v>224</v>
       </c>
     </row>
@@ -16896,7 +16910,7 @@
       <c r="L400" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M400" s="5">
+      <c r="M400" s="8">
         <v>230</v>
       </c>
     </row>
@@ -16935,7 +16949,7 @@
       <c r="L401" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M401" s="5">
+      <c r="M401" s="8">
         <v>204</v>
       </c>
     </row>
@@ -16976,7 +16990,7 @@
       <c r="L402" s="4">
         <v>2</v>
       </c>
-      <c r="M402" s="5">
+      <c r="M402" s="8">
         <v>224</v>
       </c>
     </row>
@@ -17015,7 +17029,7 @@
       <c r="L403" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M403" s="5">
+      <c r="M403" s="8">
         <v>191</v>
       </c>
     </row>
@@ -17056,7 +17070,7 @@
       <c r="L404" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M404" s="5">
+      <c r="M404" s="8">
         <v>220</v>
       </c>
     </row>
@@ -17095,7 +17109,7 @@
       <c r="L405" s="4">
         <v>1</v>
       </c>
-      <c r="M405" s="5">
+      <c r="M405" s="8">
         <v>206</v>
       </c>
     </row>
@@ -17136,7 +17150,7 @@
       <c r="L406" s="4">
         <v>1</v>
       </c>
-      <c r="M406" s="5">
+      <c r="M406" s="8">
         <v>186</v>
       </c>
     </row>
@@ -17175,7 +17189,7 @@
       <c r="L407" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M407" s="5">
+      <c r="M407" s="8">
         <v>196</v>
       </c>
     </row>
@@ -17216,7 +17230,7 @@
       <c r="L408" s="4">
         <v>1</v>
       </c>
-      <c r="M408" s="5">
+      <c r="M408" s="8">
         <v>230</v>
       </c>
     </row>
@@ -17255,7 +17269,7 @@
       <c r="L409" s="4">
         <v>1</v>
       </c>
-      <c r="M409" s="5">
+      <c r="M409" s="8">
         <v>221</v>
       </c>
     </row>
@@ -17296,7 +17310,7 @@
       <c r="L410" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M410" s="5">
+      <c r="M410" s="8">
         <v>211</v>
       </c>
     </row>
@@ -17335,7 +17349,7 @@
       <c r="L411" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M411" s="5">
+      <c r="M411" s="8">
         <v>199</v>
       </c>
     </row>
@@ -17376,7 +17390,7 @@
       <c r="L412" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M412" s="5">
+      <c r="M412" s="8">
         <v>211</v>
       </c>
     </row>
@@ -17415,7 +17429,7 @@
       <c r="L413" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M413" s="5">
+      <c r="M413" s="8">
         <v>215</v>
       </c>
     </row>
@@ -17456,7 +17470,7 @@
       <c r="L414" s="4">
         <v>1</v>
       </c>
-      <c r="M414" s="5">
+      <c r="M414" s="8">
         <v>184</v>
       </c>
     </row>
@@ -17495,7 +17509,7 @@
       <c r="L415" s="4">
         <v>1</v>
       </c>
-      <c r="M415" s="5">
+      <c r="M415" s="8">
         <v>183</v>
       </c>
     </row>
@@ -17536,7 +17550,7 @@
       <c r="L416" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M416" s="5">
+      <c r="M416" s="8">
         <v>148</v>
       </c>
     </row>
@@ -17575,7 +17589,7 @@
       <c r="L417" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M417" s="5">
+      <c r="M417" s="8">
         <v>179</v>
       </c>
     </row>
@@ -17616,7 +17630,7 @@
       <c r="L418" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M418" s="5">
+      <c r="M418" s="8">
         <v>228</v>
       </c>
     </row>
@@ -17655,7 +17669,7 @@
       <c r="L419" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M419" s="5">
+      <c r="M419" s="8">
         <v>290</v>
       </c>
     </row>
@@ -17663,44 +17677,53 @@
       <c r="A420" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B420" s="6"/>
-      <c r="C420" s="5">
+      <c r="B420" s="7"/>
+      <c r="C420" s="8">
         <v>275</v>
       </c>
-      <c r="D420" s="5">
+      <c r="D420" s="8">
         <v>262</v>
       </c>
-      <c r="E420" s="5">
-        <v>1.792</v>
-      </c>
-      <c r="F420" s="5">
+      <c r="E420" s="6">
+        <v>1792</v>
+      </c>
+      <c r="F420" s="8">
         <v>441</v>
       </c>
-      <c r="G420" s="5">
+      <c r="G420" s="8">
         <v>780</v>
       </c>
-      <c r="H420" s="5">
-        <v>1.115</v>
-      </c>
-      <c r="I420" s="5">
+      <c r="H420" s="6">
+        <v>1115</v>
+      </c>
+      <c r="I420" s="8">
         <v>603</v>
       </c>
-      <c r="J420" s="5">
+      <c r="J420" s="8">
         <v>56</v>
       </c>
-      <c r="K420" s="5">
-        <v>1</v>
-      </c>
-      <c r="L420" s="5">
+      <c r="K420" s="8">
+        <v>1</v>
+      </c>
+      <c r="L420" s="8">
         <v>13</v>
       </c>
-      <c r="M420" s="5">
-        <v>5.3380000000000001</v>
+      <c r="M420" s="6">
+        <v>5338</v>
+      </c>
+    </row>
+    <row r="421" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A421" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="422" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A422" s="10" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A135:B135"/>
     <mergeCell ref="A317:B317"/>
     <mergeCell ref="A343:B343"/>
     <mergeCell ref="A369:B369"/>
@@ -17717,6 +17740,7 @@
     <mergeCell ref="A57:B57"/>
     <mergeCell ref="A83:B83"/>
     <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A135:B135"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
